--- a/src/main/resources/Item.xlsx
+++ b/src/main/resources/Item.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9024" firstSheet="4"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="4"/>
   </bookViews>
   <sheets>
     <sheet name="10 Jan" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -91,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Item</t>
   </si>
@@ -211,111 +224,12 @@
   </si>
   <si>
     <t>Dock Name</t>
-  </si>
-  <si>
-    <t>ITM06</t>
-  </si>
-  <si>
-    <t>PART896774</t>
-  </si>
-  <si>
-    <t>ERPITM01</t>
-  </si>
-  <si>
-    <t>Bulb</t>
-  </si>
-  <si>
-    <t>item description</t>
-  </si>
-  <si>
-    <t>item group 1</t>
-  </si>
-  <si>
-    <t>catagory</t>
-  </si>
-  <si>
-    <t>subcategory</t>
-  </si>
-  <si>
-    <t>Direct</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t>kanban</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Perishable</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>Kg</t>
-  </si>
-  <si>
-    <t>INR</t>
-  </si>
-  <si>
-    <t>CODE02</t>
-  </si>
-  <si>
-    <t>Barel</t>
-  </si>
-  <si>
-    <t>CM/M</t>
-  </si>
-  <si>
-    <t>DOCK01</t>
-  </si>
-  <si>
-    <t>Dock 1</t>
-  </si>
-  <si>
-    <t>ITM07</t>
-  </si>
-  <si>
-    <t>ERPITM02</t>
-  </si>
-  <si>
-    <t>wire</t>
-  </si>
-  <si>
-    <t>issue</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Non-Perishable</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>LTR</t>
-  </si>
-  <si>
-    <t>CODE)(</t>
-  </si>
-  <si>
-    <t>Carten</t>
-  </si>
-  <si>
-    <t>DOCK 01</t>
-  </si>
-  <si>
-    <t>DOCK 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -504,12 +418,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
@@ -1030,7 +944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1064,7 +978,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1082,7 +995,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1401,1040 +1314,1040 @@
   <dimension ref="A1:AJ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A3" sqref="$A3:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.71296296296296" customWidth="1"/>
-    <col min="2" max="2" width="22.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="15.4444444444444" customWidth="1"/>
-    <col min="4" max="8" width="19.4259259259259" customWidth="1"/>
-    <col min="9" max="9" width="31.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="25.3333333333333" customWidth="1"/>
-    <col min="11" max="15" width="19.5740740740741" customWidth="1"/>
-    <col min="16" max="16" width="20.5740740740741" customWidth="1"/>
-    <col min="17" max="17" width="16.5555555555556" customWidth="1"/>
-    <col min="18" max="18" width="10.1388888888889" customWidth="1"/>
+    <col min="1" max="1" width="9.71" customWidth="1"/>
+    <col min="2" max="2" width="22.44" customWidth="1"/>
+    <col min="3" max="3" width="15.44" customWidth="1"/>
+    <col min="4" max="8" width="19.43" customWidth="1"/>
+    <col min="9" max="9" width="31.33" customWidth="1"/>
+    <col min="10" max="10" width="25.33" customWidth="1"/>
+    <col min="11" max="15" width="19.57" customWidth="1"/>
+    <col min="16" max="16" width="20.57" customWidth="1"/>
+    <col min="17" max="17" width="16.56" customWidth="1"/>
+    <col min="18" max="18" width="10.14" customWidth="1"/>
     <col min="19" max="19" width="9" customWidth="1"/>
-    <col min="20" max="20" width="10.5740740740741" customWidth="1"/>
-    <col min="21" max="21" width="16.7777777777778" customWidth="1"/>
-    <col min="22" max="22" width="10.4259259259259" customWidth="1"/>
-    <col min="23" max="23" width="10.5740740740741" customWidth="1"/>
+    <col min="20" max="20" width="10.57" customWidth="1"/>
+    <col min="21" max="21" width="16.78" customWidth="1"/>
+    <col min="22" max="22" width="10.43" customWidth="1"/>
+    <col min="23" max="23" width="10.57" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="25" max="25" width="21.1111111111111" customWidth="1"/>
-    <col min="26" max="26" width="10.5740740740741" customWidth="1"/>
-    <col min="28" max="28" width="35.4444444444444" customWidth="1"/>
-    <col min="29" max="29" width="10.5740740740741" customWidth="1"/>
+    <col min="25" max="25" width="21.11" customWidth="1"/>
+    <col min="26" max="26" width="10.57" customWidth="1"/>
+    <col min="28" max="28" width="35.44" customWidth="1"/>
+    <col min="29" max="29" width="10.57" customWidth="1"/>
     <col min="36" max="36" width="19" customWidth="1"/>
-    <col min="240" max="241" width="9.71296296296296" customWidth="1"/>
-    <col min="242" max="242" width="19.4259259259259" customWidth="1"/>
-    <col min="243" max="245" width="19.5740740740741" customWidth="1"/>
-    <col min="246" max="246" width="6.42592592592593" customWidth="1"/>
-    <col min="247" max="247" width="11.712962962963" customWidth="1"/>
-    <col min="248" max="248" width="17.5740740740741" customWidth="1"/>
-    <col min="249" max="249" width="8.28703703703704" customWidth="1"/>
-    <col min="250" max="250" width="10.1388888888889" customWidth="1"/>
+    <col min="240" max="241" width="9.71" customWidth="1"/>
+    <col min="242" max="242" width="19.43" customWidth="1"/>
+    <col min="243" max="245" width="19.57" customWidth="1"/>
+    <col min="246" max="246" width="6.43" customWidth="1"/>
+    <col min="247" max="247" width="11.71" customWidth="1"/>
+    <col min="248" max="248" width="17.57" customWidth="1"/>
+    <col min="249" max="249" width="8.29" customWidth="1"/>
+    <col min="250" max="250" width="10.14" customWidth="1"/>
     <col min="251" max="251" width="9" customWidth="1"/>
-    <col min="252" max="253" width="10.5740740740741" customWidth="1"/>
-    <col min="254" max="254" width="10.4259259259259" customWidth="1"/>
-    <col min="255" max="255" width="10.5740740740741" customWidth="1"/>
+    <col min="252" max="253" width="10.57" customWidth="1"/>
+    <col min="254" max="254" width="10.43" customWidth="1"/>
+    <col min="255" max="255" width="10.57" customWidth="1"/>
     <col min="256" max="256" width="12" customWidth="1"/>
-    <col min="257" max="258" width="10.5740740740741" customWidth="1"/>
-    <col min="260" max="260" width="10.287037037037" customWidth="1"/>
-    <col min="261" max="261" width="10.5740740740741" customWidth="1"/>
-    <col min="496" max="497" width="9.71296296296296" customWidth="1"/>
-    <col min="498" max="498" width="19.4259259259259" customWidth="1"/>
-    <col min="499" max="501" width="19.5740740740741" customWidth="1"/>
-    <col min="502" max="502" width="6.42592592592593" customWidth="1"/>
-    <col min="503" max="503" width="11.712962962963" customWidth="1"/>
-    <col min="504" max="504" width="17.5740740740741" customWidth="1"/>
-    <col min="505" max="505" width="8.28703703703704" customWidth="1"/>
-    <col min="506" max="506" width="10.1388888888889" customWidth="1"/>
+    <col min="257" max="258" width="10.57" customWidth="1"/>
+    <col min="260" max="260" width="10.29" customWidth="1"/>
+    <col min="261" max="261" width="10.57" customWidth="1"/>
+    <col min="496" max="497" width="9.71" customWidth="1"/>
+    <col min="498" max="498" width="19.43" customWidth="1"/>
+    <col min="499" max="501" width="19.57" customWidth="1"/>
+    <col min="502" max="502" width="6.43" customWidth="1"/>
+    <col min="503" max="503" width="11.71" customWidth="1"/>
+    <col min="504" max="504" width="17.57" customWidth="1"/>
+    <col min="505" max="505" width="8.29" customWidth="1"/>
+    <col min="506" max="506" width="10.14" customWidth="1"/>
     <col min="507" max="507" width="9" customWidth="1"/>
-    <col min="508" max="509" width="10.5740740740741" customWidth="1"/>
-    <col min="510" max="510" width="10.4259259259259" customWidth="1"/>
-    <col min="511" max="511" width="10.5740740740741" customWidth="1"/>
+    <col min="508" max="509" width="10.57" customWidth="1"/>
+    <col min="510" max="510" width="10.43" customWidth="1"/>
+    <col min="511" max="511" width="10.57" customWidth="1"/>
     <col min="512" max="512" width="12" customWidth="1"/>
-    <col min="513" max="514" width="10.5740740740741" customWidth="1"/>
-    <col min="516" max="516" width="10.287037037037" customWidth="1"/>
-    <col min="517" max="517" width="10.5740740740741" customWidth="1"/>
-    <col min="752" max="753" width="9.71296296296296" customWidth="1"/>
-    <col min="754" max="754" width="19.4259259259259" customWidth="1"/>
-    <col min="755" max="757" width="19.5740740740741" customWidth="1"/>
-    <col min="758" max="758" width="6.42592592592593" customWidth="1"/>
-    <col min="759" max="759" width="11.712962962963" customWidth="1"/>
-    <col min="760" max="760" width="17.5740740740741" customWidth="1"/>
-    <col min="761" max="761" width="8.28703703703704" customWidth="1"/>
-    <col min="762" max="762" width="10.1388888888889" customWidth="1"/>
+    <col min="513" max="514" width="10.57" customWidth="1"/>
+    <col min="516" max="516" width="10.29" customWidth="1"/>
+    <col min="517" max="517" width="10.57" customWidth="1"/>
+    <col min="752" max="753" width="9.71" customWidth="1"/>
+    <col min="754" max="754" width="19.43" customWidth="1"/>
+    <col min="755" max="757" width="19.57" customWidth="1"/>
+    <col min="758" max="758" width="6.43" customWidth="1"/>
+    <col min="759" max="759" width="11.71" customWidth="1"/>
+    <col min="760" max="760" width="17.57" customWidth="1"/>
+    <col min="761" max="761" width="8.29" customWidth="1"/>
+    <col min="762" max="762" width="10.14" customWidth="1"/>
     <col min="763" max="763" width="9" customWidth="1"/>
-    <col min="764" max="765" width="10.5740740740741" customWidth="1"/>
-    <col min="766" max="766" width="10.4259259259259" customWidth="1"/>
-    <col min="767" max="767" width="10.5740740740741" customWidth="1"/>
+    <col min="764" max="765" width="10.57" customWidth="1"/>
+    <col min="766" max="766" width="10.43" customWidth="1"/>
+    <col min="767" max="767" width="10.57" customWidth="1"/>
     <col min="768" max="768" width="12" customWidth="1"/>
-    <col min="769" max="770" width="10.5740740740741" customWidth="1"/>
-    <col min="772" max="772" width="10.287037037037" customWidth="1"/>
-    <col min="773" max="773" width="10.5740740740741" customWidth="1"/>
-    <col min="1008" max="1009" width="9.71296296296296" customWidth="1"/>
-    <col min="1010" max="1010" width="19.4259259259259" customWidth="1"/>
-    <col min="1011" max="1013" width="19.5740740740741" customWidth="1"/>
-    <col min="1014" max="1014" width="6.42592592592593" customWidth="1"/>
-    <col min="1015" max="1015" width="11.712962962963" customWidth="1"/>
-    <col min="1016" max="1016" width="17.5740740740741" customWidth="1"/>
-    <col min="1017" max="1017" width="8.28703703703704" customWidth="1"/>
-    <col min="1018" max="1018" width="10.1388888888889" customWidth="1"/>
+    <col min="769" max="770" width="10.57" customWidth="1"/>
+    <col min="772" max="772" width="10.29" customWidth="1"/>
+    <col min="773" max="773" width="10.57" customWidth="1"/>
+    <col min="1008" max="1009" width="9.71" customWidth="1"/>
+    <col min="1010" max="1010" width="19.43" customWidth="1"/>
+    <col min="1011" max="1013" width="19.57" customWidth="1"/>
+    <col min="1014" max="1014" width="6.43" customWidth="1"/>
+    <col min="1015" max="1015" width="11.71" customWidth="1"/>
+    <col min="1016" max="1016" width="17.57" customWidth="1"/>
+    <col min="1017" max="1017" width="8.29" customWidth="1"/>
+    <col min="1018" max="1018" width="10.14" customWidth="1"/>
     <col min="1019" max="1019" width="9" customWidth="1"/>
-    <col min="1020" max="1021" width="10.5740740740741" customWidth="1"/>
-    <col min="1022" max="1022" width="10.4259259259259" customWidth="1"/>
-    <col min="1023" max="1023" width="10.5740740740741" customWidth="1"/>
+    <col min="1020" max="1021" width="10.57" customWidth="1"/>
+    <col min="1022" max="1022" width="10.43" customWidth="1"/>
+    <col min="1023" max="1023" width="10.57" customWidth="1"/>
     <col min="1024" max="1024" width="12" customWidth="1"/>
-    <col min="1025" max="1026" width="10.5740740740741" customWidth="1"/>
-    <col min="1028" max="1028" width="10.287037037037" customWidth="1"/>
-    <col min="1029" max="1029" width="10.5740740740741" customWidth="1"/>
-    <col min="1264" max="1265" width="9.71296296296296" customWidth="1"/>
-    <col min="1266" max="1266" width="19.4259259259259" customWidth="1"/>
-    <col min="1267" max="1269" width="19.5740740740741" customWidth="1"/>
-    <col min="1270" max="1270" width="6.42592592592593" customWidth="1"/>
-    <col min="1271" max="1271" width="11.712962962963" customWidth="1"/>
-    <col min="1272" max="1272" width="17.5740740740741" customWidth="1"/>
-    <col min="1273" max="1273" width="8.28703703703704" customWidth="1"/>
-    <col min="1274" max="1274" width="10.1388888888889" customWidth="1"/>
+    <col min="1025" max="1026" width="10.57" customWidth="1"/>
+    <col min="1028" max="1028" width="10.29" customWidth="1"/>
+    <col min="1029" max="1029" width="10.57" customWidth="1"/>
+    <col min="1264" max="1265" width="9.71" customWidth="1"/>
+    <col min="1266" max="1266" width="19.43" customWidth="1"/>
+    <col min="1267" max="1269" width="19.57" customWidth="1"/>
+    <col min="1270" max="1270" width="6.43" customWidth="1"/>
+    <col min="1271" max="1271" width="11.71" customWidth="1"/>
+    <col min="1272" max="1272" width="17.57" customWidth="1"/>
+    <col min="1273" max="1273" width="8.29" customWidth="1"/>
+    <col min="1274" max="1274" width="10.14" customWidth="1"/>
     <col min="1275" max="1275" width="9" customWidth="1"/>
-    <col min="1276" max="1277" width="10.5740740740741" customWidth="1"/>
-    <col min="1278" max="1278" width="10.4259259259259" customWidth="1"/>
-    <col min="1279" max="1279" width="10.5740740740741" customWidth="1"/>
+    <col min="1276" max="1277" width="10.57" customWidth="1"/>
+    <col min="1278" max="1278" width="10.43" customWidth="1"/>
+    <col min="1279" max="1279" width="10.57" customWidth="1"/>
     <col min="1280" max="1280" width="12" customWidth="1"/>
-    <col min="1281" max="1282" width="10.5740740740741" customWidth="1"/>
-    <col min="1284" max="1284" width="10.287037037037" customWidth="1"/>
-    <col min="1285" max="1285" width="10.5740740740741" customWidth="1"/>
-    <col min="1520" max="1521" width="9.71296296296296" customWidth="1"/>
-    <col min="1522" max="1522" width="19.4259259259259" customWidth="1"/>
-    <col min="1523" max="1525" width="19.5740740740741" customWidth="1"/>
-    <col min="1526" max="1526" width="6.42592592592593" customWidth="1"/>
-    <col min="1527" max="1527" width="11.712962962963" customWidth="1"/>
-    <col min="1528" max="1528" width="17.5740740740741" customWidth="1"/>
-    <col min="1529" max="1529" width="8.28703703703704" customWidth="1"/>
-    <col min="1530" max="1530" width="10.1388888888889" customWidth="1"/>
+    <col min="1281" max="1282" width="10.57" customWidth="1"/>
+    <col min="1284" max="1284" width="10.29" customWidth="1"/>
+    <col min="1285" max="1285" width="10.57" customWidth="1"/>
+    <col min="1520" max="1521" width="9.71" customWidth="1"/>
+    <col min="1522" max="1522" width="19.43" customWidth="1"/>
+    <col min="1523" max="1525" width="19.57" customWidth="1"/>
+    <col min="1526" max="1526" width="6.43" customWidth="1"/>
+    <col min="1527" max="1527" width="11.71" customWidth="1"/>
+    <col min="1528" max="1528" width="17.57" customWidth="1"/>
+    <col min="1529" max="1529" width="8.29" customWidth="1"/>
+    <col min="1530" max="1530" width="10.14" customWidth="1"/>
     <col min="1531" max="1531" width="9" customWidth="1"/>
-    <col min="1532" max="1533" width="10.5740740740741" customWidth="1"/>
-    <col min="1534" max="1534" width="10.4259259259259" customWidth="1"/>
-    <col min="1535" max="1535" width="10.5740740740741" customWidth="1"/>
+    <col min="1532" max="1533" width="10.57" customWidth="1"/>
+    <col min="1534" max="1534" width="10.43" customWidth="1"/>
+    <col min="1535" max="1535" width="10.57" customWidth="1"/>
     <col min="1536" max="1536" width="12" customWidth="1"/>
-    <col min="1537" max="1538" width="10.5740740740741" customWidth="1"/>
-    <col min="1540" max="1540" width="10.287037037037" customWidth="1"/>
-    <col min="1541" max="1541" width="10.5740740740741" customWidth="1"/>
-    <col min="1776" max="1777" width="9.71296296296296" customWidth="1"/>
-    <col min="1778" max="1778" width="19.4259259259259" customWidth="1"/>
-    <col min="1779" max="1781" width="19.5740740740741" customWidth="1"/>
-    <col min="1782" max="1782" width="6.42592592592593" customWidth="1"/>
-    <col min="1783" max="1783" width="11.712962962963" customWidth="1"/>
-    <col min="1784" max="1784" width="17.5740740740741" customWidth="1"/>
-    <col min="1785" max="1785" width="8.28703703703704" customWidth="1"/>
-    <col min="1786" max="1786" width="10.1388888888889" customWidth="1"/>
+    <col min="1537" max="1538" width="10.57" customWidth="1"/>
+    <col min="1540" max="1540" width="10.29" customWidth="1"/>
+    <col min="1541" max="1541" width="10.57" customWidth="1"/>
+    <col min="1776" max="1777" width="9.71" customWidth="1"/>
+    <col min="1778" max="1778" width="19.43" customWidth="1"/>
+    <col min="1779" max="1781" width="19.57" customWidth="1"/>
+    <col min="1782" max="1782" width="6.43" customWidth="1"/>
+    <col min="1783" max="1783" width="11.71" customWidth="1"/>
+    <col min="1784" max="1784" width="17.57" customWidth="1"/>
+    <col min="1785" max="1785" width="8.29" customWidth="1"/>
+    <col min="1786" max="1786" width="10.14" customWidth="1"/>
     <col min="1787" max="1787" width="9" customWidth="1"/>
-    <col min="1788" max="1789" width="10.5740740740741" customWidth="1"/>
-    <col min="1790" max="1790" width="10.4259259259259" customWidth="1"/>
-    <col min="1791" max="1791" width="10.5740740740741" customWidth="1"/>
+    <col min="1788" max="1789" width="10.57" customWidth="1"/>
+    <col min="1790" max="1790" width="10.43" customWidth="1"/>
+    <col min="1791" max="1791" width="10.57" customWidth="1"/>
     <col min="1792" max="1792" width="12" customWidth="1"/>
-    <col min="1793" max="1794" width="10.5740740740741" customWidth="1"/>
-    <col min="1796" max="1796" width="10.287037037037" customWidth="1"/>
-    <col min="1797" max="1797" width="10.5740740740741" customWidth="1"/>
-    <col min="2032" max="2033" width="9.71296296296296" customWidth="1"/>
-    <col min="2034" max="2034" width="19.4259259259259" customWidth="1"/>
-    <col min="2035" max="2037" width="19.5740740740741" customWidth="1"/>
-    <col min="2038" max="2038" width="6.42592592592593" customWidth="1"/>
-    <col min="2039" max="2039" width="11.712962962963" customWidth="1"/>
-    <col min="2040" max="2040" width="17.5740740740741" customWidth="1"/>
-    <col min="2041" max="2041" width="8.28703703703704" customWidth="1"/>
-    <col min="2042" max="2042" width="10.1388888888889" customWidth="1"/>
+    <col min="1793" max="1794" width="10.57" customWidth="1"/>
+    <col min="1796" max="1796" width="10.29" customWidth="1"/>
+    <col min="1797" max="1797" width="10.57" customWidth="1"/>
+    <col min="2032" max="2033" width="9.71" customWidth="1"/>
+    <col min="2034" max="2034" width="19.43" customWidth="1"/>
+    <col min="2035" max="2037" width="19.57" customWidth="1"/>
+    <col min="2038" max="2038" width="6.43" customWidth="1"/>
+    <col min="2039" max="2039" width="11.71" customWidth="1"/>
+    <col min="2040" max="2040" width="17.57" customWidth="1"/>
+    <col min="2041" max="2041" width="8.29" customWidth="1"/>
+    <col min="2042" max="2042" width="10.14" customWidth="1"/>
     <col min="2043" max="2043" width="9" customWidth="1"/>
-    <col min="2044" max="2045" width="10.5740740740741" customWidth="1"/>
-    <col min="2046" max="2046" width="10.4259259259259" customWidth="1"/>
-    <col min="2047" max="2047" width="10.5740740740741" customWidth="1"/>
+    <col min="2044" max="2045" width="10.57" customWidth="1"/>
+    <col min="2046" max="2046" width="10.43" customWidth="1"/>
+    <col min="2047" max="2047" width="10.57" customWidth="1"/>
     <col min="2048" max="2048" width="12" customWidth="1"/>
-    <col min="2049" max="2050" width="10.5740740740741" customWidth="1"/>
-    <col min="2052" max="2052" width="10.287037037037" customWidth="1"/>
-    <col min="2053" max="2053" width="10.5740740740741" customWidth="1"/>
-    <col min="2288" max="2289" width="9.71296296296296" customWidth="1"/>
-    <col min="2290" max="2290" width="19.4259259259259" customWidth="1"/>
-    <col min="2291" max="2293" width="19.5740740740741" customWidth="1"/>
-    <col min="2294" max="2294" width="6.42592592592593" customWidth="1"/>
-    <col min="2295" max="2295" width="11.712962962963" customWidth="1"/>
-    <col min="2296" max="2296" width="17.5740740740741" customWidth="1"/>
-    <col min="2297" max="2297" width="8.28703703703704" customWidth="1"/>
-    <col min="2298" max="2298" width="10.1388888888889" customWidth="1"/>
+    <col min="2049" max="2050" width="10.57" customWidth="1"/>
+    <col min="2052" max="2052" width="10.29" customWidth="1"/>
+    <col min="2053" max="2053" width="10.57" customWidth="1"/>
+    <col min="2288" max="2289" width="9.71" customWidth="1"/>
+    <col min="2290" max="2290" width="19.43" customWidth="1"/>
+    <col min="2291" max="2293" width="19.57" customWidth="1"/>
+    <col min="2294" max="2294" width="6.43" customWidth="1"/>
+    <col min="2295" max="2295" width="11.71" customWidth="1"/>
+    <col min="2296" max="2296" width="17.57" customWidth="1"/>
+    <col min="2297" max="2297" width="8.29" customWidth="1"/>
+    <col min="2298" max="2298" width="10.14" customWidth="1"/>
     <col min="2299" max="2299" width="9" customWidth="1"/>
-    <col min="2300" max="2301" width="10.5740740740741" customWidth="1"/>
-    <col min="2302" max="2302" width="10.4259259259259" customWidth="1"/>
-    <col min="2303" max="2303" width="10.5740740740741" customWidth="1"/>
+    <col min="2300" max="2301" width="10.57" customWidth="1"/>
+    <col min="2302" max="2302" width="10.43" customWidth="1"/>
+    <col min="2303" max="2303" width="10.57" customWidth="1"/>
     <col min="2304" max="2304" width="12" customWidth="1"/>
-    <col min="2305" max="2306" width="10.5740740740741" customWidth="1"/>
-    <col min="2308" max="2308" width="10.287037037037" customWidth="1"/>
-    <col min="2309" max="2309" width="10.5740740740741" customWidth="1"/>
-    <col min="2544" max="2545" width="9.71296296296296" customWidth="1"/>
-    <col min="2546" max="2546" width="19.4259259259259" customWidth="1"/>
-    <col min="2547" max="2549" width="19.5740740740741" customWidth="1"/>
-    <col min="2550" max="2550" width="6.42592592592593" customWidth="1"/>
-    <col min="2551" max="2551" width="11.712962962963" customWidth="1"/>
-    <col min="2552" max="2552" width="17.5740740740741" customWidth="1"/>
-    <col min="2553" max="2553" width="8.28703703703704" customWidth="1"/>
-    <col min="2554" max="2554" width="10.1388888888889" customWidth="1"/>
+    <col min="2305" max="2306" width="10.57" customWidth="1"/>
+    <col min="2308" max="2308" width="10.29" customWidth="1"/>
+    <col min="2309" max="2309" width="10.57" customWidth="1"/>
+    <col min="2544" max="2545" width="9.71" customWidth="1"/>
+    <col min="2546" max="2546" width="19.43" customWidth="1"/>
+    <col min="2547" max="2549" width="19.57" customWidth="1"/>
+    <col min="2550" max="2550" width="6.43" customWidth="1"/>
+    <col min="2551" max="2551" width="11.71" customWidth="1"/>
+    <col min="2552" max="2552" width="17.57" customWidth="1"/>
+    <col min="2553" max="2553" width="8.29" customWidth="1"/>
+    <col min="2554" max="2554" width="10.14" customWidth="1"/>
     <col min="2555" max="2555" width="9" customWidth="1"/>
-    <col min="2556" max="2557" width="10.5740740740741" customWidth="1"/>
-    <col min="2558" max="2558" width="10.4259259259259" customWidth="1"/>
-    <col min="2559" max="2559" width="10.5740740740741" customWidth="1"/>
+    <col min="2556" max="2557" width="10.57" customWidth="1"/>
+    <col min="2558" max="2558" width="10.43" customWidth="1"/>
+    <col min="2559" max="2559" width="10.57" customWidth="1"/>
     <col min="2560" max="2560" width="12" customWidth="1"/>
-    <col min="2561" max="2562" width="10.5740740740741" customWidth="1"/>
-    <col min="2564" max="2564" width="10.287037037037" customWidth="1"/>
-    <col min="2565" max="2565" width="10.5740740740741" customWidth="1"/>
-    <col min="2800" max="2801" width="9.71296296296296" customWidth="1"/>
-    <col min="2802" max="2802" width="19.4259259259259" customWidth="1"/>
-    <col min="2803" max="2805" width="19.5740740740741" customWidth="1"/>
-    <col min="2806" max="2806" width="6.42592592592593" customWidth="1"/>
-    <col min="2807" max="2807" width="11.712962962963" customWidth="1"/>
-    <col min="2808" max="2808" width="17.5740740740741" customWidth="1"/>
-    <col min="2809" max="2809" width="8.28703703703704" customWidth="1"/>
-    <col min="2810" max="2810" width="10.1388888888889" customWidth="1"/>
+    <col min="2561" max="2562" width="10.57" customWidth="1"/>
+    <col min="2564" max="2564" width="10.29" customWidth="1"/>
+    <col min="2565" max="2565" width="10.57" customWidth="1"/>
+    <col min="2800" max="2801" width="9.71" customWidth="1"/>
+    <col min="2802" max="2802" width="19.43" customWidth="1"/>
+    <col min="2803" max="2805" width="19.57" customWidth="1"/>
+    <col min="2806" max="2806" width="6.43" customWidth="1"/>
+    <col min="2807" max="2807" width="11.71" customWidth="1"/>
+    <col min="2808" max="2808" width="17.57" customWidth="1"/>
+    <col min="2809" max="2809" width="8.29" customWidth="1"/>
+    <col min="2810" max="2810" width="10.14" customWidth="1"/>
     <col min="2811" max="2811" width="9" customWidth="1"/>
-    <col min="2812" max="2813" width="10.5740740740741" customWidth="1"/>
-    <col min="2814" max="2814" width="10.4259259259259" customWidth="1"/>
-    <col min="2815" max="2815" width="10.5740740740741" customWidth="1"/>
+    <col min="2812" max="2813" width="10.57" customWidth="1"/>
+    <col min="2814" max="2814" width="10.43" customWidth="1"/>
+    <col min="2815" max="2815" width="10.57" customWidth="1"/>
     <col min="2816" max="2816" width="12" customWidth="1"/>
-    <col min="2817" max="2818" width="10.5740740740741" customWidth="1"/>
-    <col min="2820" max="2820" width="10.287037037037" customWidth="1"/>
-    <col min="2821" max="2821" width="10.5740740740741" customWidth="1"/>
-    <col min="3056" max="3057" width="9.71296296296296" customWidth="1"/>
-    <col min="3058" max="3058" width="19.4259259259259" customWidth="1"/>
-    <col min="3059" max="3061" width="19.5740740740741" customWidth="1"/>
-    <col min="3062" max="3062" width="6.42592592592593" customWidth="1"/>
-    <col min="3063" max="3063" width="11.712962962963" customWidth="1"/>
-    <col min="3064" max="3064" width="17.5740740740741" customWidth="1"/>
-    <col min="3065" max="3065" width="8.28703703703704" customWidth="1"/>
-    <col min="3066" max="3066" width="10.1388888888889" customWidth="1"/>
+    <col min="2817" max="2818" width="10.57" customWidth="1"/>
+    <col min="2820" max="2820" width="10.29" customWidth="1"/>
+    <col min="2821" max="2821" width="10.57" customWidth="1"/>
+    <col min="3056" max="3057" width="9.71" customWidth="1"/>
+    <col min="3058" max="3058" width="19.43" customWidth="1"/>
+    <col min="3059" max="3061" width="19.57" customWidth="1"/>
+    <col min="3062" max="3062" width="6.43" customWidth="1"/>
+    <col min="3063" max="3063" width="11.71" customWidth="1"/>
+    <col min="3064" max="3064" width="17.57" customWidth="1"/>
+    <col min="3065" max="3065" width="8.29" customWidth="1"/>
+    <col min="3066" max="3066" width="10.14" customWidth="1"/>
     <col min="3067" max="3067" width="9" customWidth="1"/>
-    <col min="3068" max="3069" width="10.5740740740741" customWidth="1"/>
-    <col min="3070" max="3070" width="10.4259259259259" customWidth="1"/>
-    <col min="3071" max="3071" width="10.5740740740741" customWidth="1"/>
+    <col min="3068" max="3069" width="10.57" customWidth="1"/>
+    <col min="3070" max="3070" width="10.43" customWidth="1"/>
+    <col min="3071" max="3071" width="10.57" customWidth="1"/>
     <col min="3072" max="3072" width="12" customWidth="1"/>
-    <col min="3073" max="3074" width="10.5740740740741" customWidth="1"/>
-    <col min="3076" max="3076" width="10.287037037037" customWidth="1"/>
-    <col min="3077" max="3077" width="10.5740740740741" customWidth="1"/>
-    <col min="3312" max="3313" width="9.71296296296296" customWidth="1"/>
-    <col min="3314" max="3314" width="19.4259259259259" customWidth="1"/>
-    <col min="3315" max="3317" width="19.5740740740741" customWidth="1"/>
-    <col min="3318" max="3318" width="6.42592592592593" customWidth="1"/>
-    <col min="3319" max="3319" width="11.712962962963" customWidth="1"/>
-    <col min="3320" max="3320" width="17.5740740740741" customWidth="1"/>
-    <col min="3321" max="3321" width="8.28703703703704" customWidth="1"/>
-    <col min="3322" max="3322" width="10.1388888888889" customWidth="1"/>
+    <col min="3073" max="3074" width="10.57" customWidth="1"/>
+    <col min="3076" max="3076" width="10.29" customWidth="1"/>
+    <col min="3077" max="3077" width="10.57" customWidth="1"/>
+    <col min="3312" max="3313" width="9.71" customWidth="1"/>
+    <col min="3314" max="3314" width="19.43" customWidth="1"/>
+    <col min="3315" max="3317" width="19.57" customWidth="1"/>
+    <col min="3318" max="3318" width="6.43" customWidth="1"/>
+    <col min="3319" max="3319" width="11.71" customWidth="1"/>
+    <col min="3320" max="3320" width="17.57" customWidth="1"/>
+    <col min="3321" max="3321" width="8.29" customWidth="1"/>
+    <col min="3322" max="3322" width="10.14" customWidth="1"/>
     <col min="3323" max="3323" width="9" customWidth="1"/>
-    <col min="3324" max="3325" width="10.5740740740741" customWidth="1"/>
-    <col min="3326" max="3326" width="10.4259259259259" customWidth="1"/>
-    <col min="3327" max="3327" width="10.5740740740741" customWidth="1"/>
+    <col min="3324" max="3325" width="10.57" customWidth="1"/>
+    <col min="3326" max="3326" width="10.43" customWidth="1"/>
+    <col min="3327" max="3327" width="10.57" customWidth="1"/>
     <col min="3328" max="3328" width="12" customWidth="1"/>
-    <col min="3329" max="3330" width="10.5740740740741" customWidth="1"/>
-    <col min="3332" max="3332" width="10.287037037037" customWidth="1"/>
-    <col min="3333" max="3333" width="10.5740740740741" customWidth="1"/>
-    <col min="3568" max="3569" width="9.71296296296296" customWidth="1"/>
-    <col min="3570" max="3570" width="19.4259259259259" customWidth="1"/>
-    <col min="3571" max="3573" width="19.5740740740741" customWidth="1"/>
-    <col min="3574" max="3574" width="6.42592592592593" customWidth="1"/>
-    <col min="3575" max="3575" width="11.712962962963" customWidth="1"/>
-    <col min="3576" max="3576" width="17.5740740740741" customWidth="1"/>
-    <col min="3577" max="3577" width="8.28703703703704" customWidth="1"/>
-    <col min="3578" max="3578" width="10.1388888888889" customWidth="1"/>
+    <col min="3329" max="3330" width="10.57" customWidth="1"/>
+    <col min="3332" max="3332" width="10.29" customWidth="1"/>
+    <col min="3333" max="3333" width="10.57" customWidth="1"/>
+    <col min="3568" max="3569" width="9.71" customWidth="1"/>
+    <col min="3570" max="3570" width="19.43" customWidth="1"/>
+    <col min="3571" max="3573" width="19.57" customWidth="1"/>
+    <col min="3574" max="3574" width="6.43" customWidth="1"/>
+    <col min="3575" max="3575" width="11.71" customWidth="1"/>
+    <col min="3576" max="3576" width="17.57" customWidth="1"/>
+    <col min="3577" max="3577" width="8.29" customWidth="1"/>
+    <col min="3578" max="3578" width="10.14" customWidth="1"/>
     <col min="3579" max="3579" width="9" customWidth="1"/>
-    <col min="3580" max="3581" width="10.5740740740741" customWidth="1"/>
-    <col min="3582" max="3582" width="10.4259259259259" customWidth="1"/>
-    <col min="3583" max="3583" width="10.5740740740741" customWidth="1"/>
+    <col min="3580" max="3581" width="10.57" customWidth="1"/>
+    <col min="3582" max="3582" width="10.43" customWidth="1"/>
+    <col min="3583" max="3583" width="10.57" customWidth="1"/>
     <col min="3584" max="3584" width="12" customWidth="1"/>
-    <col min="3585" max="3586" width="10.5740740740741" customWidth="1"/>
-    <col min="3588" max="3588" width="10.287037037037" customWidth="1"/>
-    <col min="3589" max="3589" width="10.5740740740741" customWidth="1"/>
-    <col min="3824" max="3825" width="9.71296296296296" customWidth="1"/>
-    <col min="3826" max="3826" width="19.4259259259259" customWidth="1"/>
-    <col min="3827" max="3829" width="19.5740740740741" customWidth="1"/>
-    <col min="3830" max="3830" width="6.42592592592593" customWidth="1"/>
-    <col min="3831" max="3831" width="11.712962962963" customWidth="1"/>
-    <col min="3832" max="3832" width="17.5740740740741" customWidth="1"/>
-    <col min="3833" max="3833" width="8.28703703703704" customWidth="1"/>
-    <col min="3834" max="3834" width="10.1388888888889" customWidth="1"/>
+    <col min="3585" max="3586" width="10.57" customWidth="1"/>
+    <col min="3588" max="3588" width="10.29" customWidth="1"/>
+    <col min="3589" max="3589" width="10.57" customWidth="1"/>
+    <col min="3824" max="3825" width="9.71" customWidth="1"/>
+    <col min="3826" max="3826" width="19.43" customWidth="1"/>
+    <col min="3827" max="3829" width="19.57" customWidth="1"/>
+    <col min="3830" max="3830" width="6.43" customWidth="1"/>
+    <col min="3831" max="3831" width="11.71" customWidth="1"/>
+    <col min="3832" max="3832" width="17.57" customWidth="1"/>
+    <col min="3833" max="3833" width="8.29" customWidth="1"/>
+    <col min="3834" max="3834" width="10.14" customWidth="1"/>
     <col min="3835" max="3835" width="9" customWidth="1"/>
-    <col min="3836" max="3837" width="10.5740740740741" customWidth="1"/>
-    <col min="3838" max="3838" width="10.4259259259259" customWidth="1"/>
-    <col min="3839" max="3839" width="10.5740740740741" customWidth="1"/>
+    <col min="3836" max="3837" width="10.57" customWidth="1"/>
+    <col min="3838" max="3838" width="10.43" customWidth="1"/>
+    <col min="3839" max="3839" width="10.57" customWidth="1"/>
     <col min="3840" max="3840" width="12" customWidth="1"/>
-    <col min="3841" max="3842" width="10.5740740740741" customWidth="1"/>
-    <col min="3844" max="3844" width="10.287037037037" customWidth="1"/>
-    <col min="3845" max="3845" width="10.5740740740741" customWidth="1"/>
-    <col min="4080" max="4081" width="9.71296296296296" customWidth="1"/>
-    <col min="4082" max="4082" width="19.4259259259259" customWidth="1"/>
-    <col min="4083" max="4085" width="19.5740740740741" customWidth="1"/>
-    <col min="4086" max="4086" width="6.42592592592593" customWidth="1"/>
-    <col min="4087" max="4087" width="11.712962962963" customWidth="1"/>
-    <col min="4088" max="4088" width="17.5740740740741" customWidth="1"/>
-    <col min="4089" max="4089" width="8.28703703703704" customWidth="1"/>
-    <col min="4090" max="4090" width="10.1388888888889" customWidth="1"/>
+    <col min="3841" max="3842" width="10.57" customWidth="1"/>
+    <col min="3844" max="3844" width="10.29" customWidth="1"/>
+    <col min="3845" max="3845" width="10.57" customWidth="1"/>
+    <col min="4080" max="4081" width="9.71" customWidth="1"/>
+    <col min="4082" max="4082" width="19.43" customWidth="1"/>
+    <col min="4083" max="4085" width="19.57" customWidth="1"/>
+    <col min="4086" max="4086" width="6.43" customWidth="1"/>
+    <col min="4087" max="4087" width="11.71" customWidth="1"/>
+    <col min="4088" max="4088" width="17.57" customWidth="1"/>
+    <col min="4089" max="4089" width="8.29" customWidth="1"/>
+    <col min="4090" max="4090" width="10.14" customWidth="1"/>
     <col min="4091" max="4091" width="9" customWidth="1"/>
-    <col min="4092" max="4093" width="10.5740740740741" customWidth="1"/>
-    <col min="4094" max="4094" width="10.4259259259259" customWidth="1"/>
-    <col min="4095" max="4095" width="10.5740740740741" customWidth="1"/>
+    <col min="4092" max="4093" width="10.57" customWidth="1"/>
+    <col min="4094" max="4094" width="10.43" customWidth="1"/>
+    <col min="4095" max="4095" width="10.57" customWidth="1"/>
     <col min="4096" max="4096" width="12" customWidth="1"/>
-    <col min="4097" max="4098" width="10.5740740740741" customWidth="1"/>
-    <col min="4100" max="4100" width="10.287037037037" customWidth="1"/>
-    <col min="4101" max="4101" width="10.5740740740741" customWidth="1"/>
-    <col min="4336" max="4337" width="9.71296296296296" customWidth="1"/>
-    <col min="4338" max="4338" width="19.4259259259259" customWidth="1"/>
-    <col min="4339" max="4341" width="19.5740740740741" customWidth="1"/>
-    <col min="4342" max="4342" width="6.42592592592593" customWidth="1"/>
-    <col min="4343" max="4343" width="11.712962962963" customWidth="1"/>
-    <col min="4344" max="4344" width="17.5740740740741" customWidth="1"/>
-    <col min="4345" max="4345" width="8.28703703703704" customWidth="1"/>
-    <col min="4346" max="4346" width="10.1388888888889" customWidth="1"/>
+    <col min="4097" max="4098" width="10.57" customWidth="1"/>
+    <col min="4100" max="4100" width="10.29" customWidth="1"/>
+    <col min="4101" max="4101" width="10.57" customWidth="1"/>
+    <col min="4336" max="4337" width="9.71" customWidth="1"/>
+    <col min="4338" max="4338" width="19.43" customWidth="1"/>
+    <col min="4339" max="4341" width="19.57" customWidth="1"/>
+    <col min="4342" max="4342" width="6.43" customWidth="1"/>
+    <col min="4343" max="4343" width="11.71" customWidth="1"/>
+    <col min="4344" max="4344" width="17.57" customWidth="1"/>
+    <col min="4345" max="4345" width="8.29" customWidth="1"/>
+    <col min="4346" max="4346" width="10.14" customWidth="1"/>
     <col min="4347" max="4347" width="9" customWidth="1"/>
-    <col min="4348" max="4349" width="10.5740740740741" customWidth="1"/>
-    <col min="4350" max="4350" width="10.4259259259259" customWidth="1"/>
-    <col min="4351" max="4351" width="10.5740740740741" customWidth="1"/>
+    <col min="4348" max="4349" width="10.57" customWidth="1"/>
+    <col min="4350" max="4350" width="10.43" customWidth="1"/>
+    <col min="4351" max="4351" width="10.57" customWidth="1"/>
     <col min="4352" max="4352" width="12" customWidth="1"/>
-    <col min="4353" max="4354" width="10.5740740740741" customWidth="1"/>
-    <col min="4356" max="4356" width="10.287037037037" customWidth="1"/>
-    <col min="4357" max="4357" width="10.5740740740741" customWidth="1"/>
-    <col min="4592" max="4593" width="9.71296296296296" customWidth="1"/>
-    <col min="4594" max="4594" width="19.4259259259259" customWidth="1"/>
-    <col min="4595" max="4597" width="19.5740740740741" customWidth="1"/>
-    <col min="4598" max="4598" width="6.42592592592593" customWidth="1"/>
-    <col min="4599" max="4599" width="11.712962962963" customWidth="1"/>
-    <col min="4600" max="4600" width="17.5740740740741" customWidth="1"/>
-    <col min="4601" max="4601" width="8.28703703703704" customWidth="1"/>
-    <col min="4602" max="4602" width="10.1388888888889" customWidth="1"/>
+    <col min="4353" max="4354" width="10.57" customWidth="1"/>
+    <col min="4356" max="4356" width="10.29" customWidth="1"/>
+    <col min="4357" max="4357" width="10.57" customWidth="1"/>
+    <col min="4592" max="4593" width="9.71" customWidth="1"/>
+    <col min="4594" max="4594" width="19.43" customWidth="1"/>
+    <col min="4595" max="4597" width="19.57" customWidth="1"/>
+    <col min="4598" max="4598" width="6.43" customWidth="1"/>
+    <col min="4599" max="4599" width="11.71" customWidth="1"/>
+    <col min="4600" max="4600" width="17.57" customWidth="1"/>
+    <col min="4601" max="4601" width="8.29" customWidth="1"/>
+    <col min="4602" max="4602" width="10.14" customWidth="1"/>
     <col min="4603" max="4603" width="9" customWidth="1"/>
-    <col min="4604" max="4605" width="10.5740740740741" customWidth="1"/>
-    <col min="4606" max="4606" width="10.4259259259259" customWidth="1"/>
-    <col min="4607" max="4607" width="10.5740740740741" customWidth="1"/>
+    <col min="4604" max="4605" width="10.57" customWidth="1"/>
+    <col min="4606" max="4606" width="10.43" customWidth="1"/>
+    <col min="4607" max="4607" width="10.57" customWidth="1"/>
     <col min="4608" max="4608" width="12" customWidth="1"/>
-    <col min="4609" max="4610" width="10.5740740740741" customWidth="1"/>
-    <col min="4612" max="4612" width="10.287037037037" customWidth="1"/>
-    <col min="4613" max="4613" width="10.5740740740741" customWidth="1"/>
-    <col min="4848" max="4849" width="9.71296296296296" customWidth="1"/>
-    <col min="4850" max="4850" width="19.4259259259259" customWidth="1"/>
-    <col min="4851" max="4853" width="19.5740740740741" customWidth="1"/>
-    <col min="4854" max="4854" width="6.42592592592593" customWidth="1"/>
-    <col min="4855" max="4855" width="11.712962962963" customWidth="1"/>
-    <col min="4856" max="4856" width="17.5740740740741" customWidth="1"/>
-    <col min="4857" max="4857" width="8.28703703703704" customWidth="1"/>
-    <col min="4858" max="4858" width="10.1388888888889" customWidth="1"/>
+    <col min="4609" max="4610" width="10.57" customWidth="1"/>
+    <col min="4612" max="4612" width="10.29" customWidth="1"/>
+    <col min="4613" max="4613" width="10.57" customWidth="1"/>
+    <col min="4848" max="4849" width="9.71" customWidth="1"/>
+    <col min="4850" max="4850" width="19.43" customWidth="1"/>
+    <col min="4851" max="4853" width="19.57" customWidth="1"/>
+    <col min="4854" max="4854" width="6.43" customWidth="1"/>
+    <col min="4855" max="4855" width="11.71" customWidth="1"/>
+    <col min="4856" max="4856" width="17.57" customWidth="1"/>
+    <col min="4857" max="4857" width="8.29" customWidth="1"/>
+    <col min="4858" max="4858" width="10.14" customWidth="1"/>
     <col min="4859" max="4859" width="9" customWidth="1"/>
-    <col min="4860" max="4861" width="10.5740740740741" customWidth="1"/>
-    <col min="4862" max="4862" width="10.4259259259259" customWidth="1"/>
-    <col min="4863" max="4863" width="10.5740740740741" customWidth="1"/>
+    <col min="4860" max="4861" width="10.57" customWidth="1"/>
+    <col min="4862" max="4862" width="10.43" customWidth="1"/>
+    <col min="4863" max="4863" width="10.57" customWidth="1"/>
     <col min="4864" max="4864" width="12" customWidth="1"/>
-    <col min="4865" max="4866" width="10.5740740740741" customWidth="1"/>
-    <col min="4868" max="4868" width="10.287037037037" customWidth="1"/>
-    <col min="4869" max="4869" width="10.5740740740741" customWidth="1"/>
-    <col min="5104" max="5105" width="9.71296296296296" customWidth="1"/>
-    <col min="5106" max="5106" width="19.4259259259259" customWidth="1"/>
-    <col min="5107" max="5109" width="19.5740740740741" customWidth="1"/>
-    <col min="5110" max="5110" width="6.42592592592593" customWidth="1"/>
-    <col min="5111" max="5111" width="11.712962962963" customWidth="1"/>
-    <col min="5112" max="5112" width="17.5740740740741" customWidth="1"/>
-    <col min="5113" max="5113" width="8.28703703703704" customWidth="1"/>
-    <col min="5114" max="5114" width="10.1388888888889" customWidth="1"/>
+    <col min="4865" max="4866" width="10.57" customWidth="1"/>
+    <col min="4868" max="4868" width="10.29" customWidth="1"/>
+    <col min="4869" max="4869" width="10.57" customWidth="1"/>
+    <col min="5104" max="5105" width="9.71" customWidth="1"/>
+    <col min="5106" max="5106" width="19.43" customWidth="1"/>
+    <col min="5107" max="5109" width="19.57" customWidth="1"/>
+    <col min="5110" max="5110" width="6.43" customWidth="1"/>
+    <col min="5111" max="5111" width="11.71" customWidth="1"/>
+    <col min="5112" max="5112" width="17.57" customWidth="1"/>
+    <col min="5113" max="5113" width="8.29" customWidth="1"/>
+    <col min="5114" max="5114" width="10.14" customWidth="1"/>
     <col min="5115" max="5115" width="9" customWidth="1"/>
-    <col min="5116" max="5117" width="10.5740740740741" customWidth="1"/>
-    <col min="5118" max="5118" width="10.4259259259259" customWidth="1"/>
-    <col min="5119" max="5119" width="10.5740740740741" customWidth="1"/>
+    <col min="5116" max="5117" width="10.57" customWidth="1"/>
+    <col min="5118" max="5118" width="10.43" customWidth="1"/>
+    <col min="5119" max="5119" width="10.57" customWidth="1"/>
     <col min="5120" max="5120" width="12" customWidth="1"/>
-    <col min="5121" max="5122" width="10.5740740740741" customWidth="1"/>
-    <col min="5124" max="5124" width="10.287037037037" customWidth="1"/>
-    <col min="5125" max="5125" width="10.5740740740741" customWidth="1"/>
-    <col min="5360" max="5361" width="9.71296296296296" customWidth="1"/>
-    <col min="5362" max="5362" width="19.4259259259259" customWidth="1"/>
-    <col min="5363" max="5365" width="19.5740740740741" customWidth="1"/>
-    <col min="5366" max="5366" width="6.42592592592593" customWidth="1"/>
-    <col min="5367" max="5367" width="11.712962962963" customWidth="1"/>
-    <col min="5368" max="5368" width="17.5740740740741" customWidth="1"/>
-    <col min="5369" max="5369" width="8.28703703703704" customWidth="1"/>
-    <col min="5370" max="5370" width="10.1388888888889" customWidth="1"/>
+    <col min="5121" max="5122" width="10.57" customWidth="1"/>
+    <col min="5124" max="5124" width="10.29" customWidth="1"/>
+    <col min="5125" max="5125" width="10.57" customWidth="1"/>
+    <col min="5360" max="5361" width="9.71" customWidth="1"/>
+    <col min="5362" max="5362" width="19.43" customWidth="1"/>
+    <col min="5363" max="5365" width="19.57" customWidth="1"/>
+    <col min="5366" max="5366" width="6.43" customWidth="1"/>
+    <col min="5367" max="5367" width="11.71" customWidth="1"/>
+    <col min="5368" max="5368" width="17.57" customWidth="1"/>
+    <col min="5369" max="5369" width="8.29" customWidth="1"/>
+    <col min="5370" max="5370" width="10.14" customWidth="1"/>
     <col min="5371" max="5371" width="9" customWidth="1"/>
-    <col min="5372" max="5373" width="10.5740740740741" customWidth="1"/>
-    <col min="5374" max="5374" width="10.4259259259259" customWidth="1"/>
-    <col min="5375" max="5375" width="10.5740740740741" customWidth="1"/>
+    <col min="5372" max="5373" width="10.57" customWidth="1"/>
+    <col min="5374" max="5374" width="10.43" customWidth="1"/>
+    <col min="5375" max="5375" width="10.57" customWidth="1"/>
     <col min="5376" max="5376" width="12" customWidth="1"/>
-    <col min="5377" max="5378" width="10.5740740740741" customWidth="1"/>
-    <col min="5380" max="5380" width="10.287037037037" customWidth="1"/>
-    <col min="5381" max="5381" width="10.5740740740741" customWidth="1"/>
-    <col min="5616" max="5617" width="9.71296296296296" customWidth="1"/>
-    <col min="5618" max="5618" width="19.4259259259259" customWidth="1"/>
-    <col min="5619" max="5621" width="19.5740740740741" customWidth="1"/>
-    <col min="5622" max="5622" width="6.42592592592593" customWidth="1"/>
-    <col min="5623" max="5623" width="11.712962962963" customWidth="1"/>
-    <col min="5624" max="5624" width="17.5740740740741" customWidth="1"/>
-    <col min="5625" max="5625" width="8.28703703703704" customWidth="1"/>
-    <col min="5626" max="5626" width="10.1388888888889" customWidth="1"/>
+    <col min="5377" max="5378" width="10.57" customWidth="1"/>
+    <col min="5380" max="5380" width="10.29" customWidth="1"/>
+    <col min="5381" max="5381" width="10.57" customWidth="1"/>
+    <col min="5616" max="5617" width="9.71" customWidth="1"/>
+    <col min="5618" max="5618" width="19.43" customWidth="1"/>
+    <col min="5619" max="5621" width="19.57" customWidth="1"/>
+    <col min="5622" max="5622" width="6.43" customWidth="1"/>
+    <col min="5623" max="5623" width="11.71" customWidth="1"/>
+    <col min="5624" max="5624" width="17.57" customWidth="1"/>
+    <col min="5625" max="5625" width="8.29" customWidth="1"/>
+    <col min="5626" max="5626" width="10.14" customWidth="1"/>
     <col min="5627" max="5627" width="9" customWidth="1"/>
-    <col min="5628" max="5629" width="10.5740740740741" customWidth="1"/>
-    <col min="5630" max="5630" width="10.4259259259259" customWidth="1"/>
-    <col min="5631" max="5631" width="10.5740740740741" customWidth="1"/>
+    <col min="5628" max="5629" width="10.57" customWidth="1"/>
+    <col min="5630" max="5630" width="10.43" customWidth="1"/>
+    <col min="5631" max="5631" width="10.57" customWidth="1"/>
     <col min="5632" max="5632" width="12" customWidth="1"/>
-    <col min="5633" max="5634" width="10.5740740740741" customWidth="1"/>
-    <col min="5636" max="5636" width="10.287037037037" customWidth="1"/>
-    <col min="5637" max="5637" width="10.5740740740741" customWidth="1"/>
-    <col min="5872" max="5873" width="9.71296296296296" customWidth="1"/>
-    <col min="5874" max="5874" width="19.4259259259259" customWidth="1"/>
-    <col min="5875" max="5877" width="19.5740740740741" customWidth="1"/>
-    <col min="5878" max="5878" width="6.42592592592593" customWidth="1"/>
-    <col min="5879" max="5879" width="11.712962962963" customWidth="1"/>
-    <col min="5880" max="5880" width="17.5740740740741" customWidth="1"/>
-    <col min="5881" max="5881" width="8.28703703703704" customWidth="1"/>
-    <col min="5882" max="5882" width="10.1388888888889" customWidth="1"/>
+    <col min="5633" max="5634" width="10.57" customWidth="1"/>
+    <col min="5636" max="5636" width="10.29" customWidth="1"/>
+    <col min="5637" max="5637" width="10.57" customWidth="1"/>
+    <col min="5872" max="5873" width="9.71" customWidth="1"/>
+    <col min="5874" max="5874" width="19.43" customWidth="1"/>
+    <col min="5875" max="5877" width="19.57" customWidth="1"/>
+    <col min="5878" max="5878" width="6.43" customWidth="1"/>
+    <col min="5879" max="5879" width="11.71" customWidth="1"/>
+    <col min="5880" max="5880" width="17.57" customWidth="1"/>
+    <col min="5881" max="5881" width="8.29" customWidth="1"/>
+    <col min="5882" max="5882" width="10.14" customWidth="1"/>
     <col min="5883" max="5883" width="9" customWidth="1"/>
-    <col min="5884" max="5885" width="10.5740740740741" customWidth="1"/>
-    <col min="5886" max="5886" width="10.4259259259259" customWidth="1"/>
-    <col min="5887" max="5887" width="10.5740740740741" customWidth="1"/>
+    <col min="5884" max="5885" width="10.57" customWidth="1"/>
+    <col min="5886" max="5886" width="10.43" customWidth="1"/>
+    <col min="5887" max="5887" width="10.57" customWidth="1"/>
     <col min="5888" max="5888" width="12" customWidth="1"/>
-    <col min="5889" max="5890" width="10.5740740740741" customWidth="1"/>
-    <col min="5892" max="5892" width="10.287037037037" customWidth="1"/>
-    <col min="5893" max="5893" width="10.5740740740741" customWidth="1"/>
-    <col min="6128" max="6129" width="9.71296296296296" customWidth="1"/>
-    <col min="6130" max="6130" width="19.4259259259259" customWidth="1"/>
-    <col min="6131" max="6133" width="19.5740740740741" customWidth="1"/>
-    <col min="6134" max="6134" width="6.42592592592593" customWidth="1"/>
-    <col min="6135" max="6135" width="11.712962962963" customWidth="1"/>
-    <col min="6136" max="6136" width="17.5740740740741" customWidth="1"/>
-    <col min="6137" max="6137" width="8.28703703703704" customWidth="1"/>
-    <col min="6138" max="6138" width="10.1388888888889" customWidth="1"/>
+    <col min="5889" max="5890" width="10.57" customWidth="1"/>
+    <col min="5892" max="5892" width="10.29" customWidth="1"/>
+    <col min="5893" max="5893" width="10.57" customWidth="1"/>
+    <col min="6128" max="6129" width="9.71" customWidth="1"/>
+    <col min="6130" max="6130" width="19.43" customWidth="1"/>
+    <col min="6131" max="6133" width="19.57" customWidth="1"/>
+    <col min="6134" max="6134" width="6.43" customWidth="1"/>
+    <col min="6135" max="6135" width="11.71" customWidth="1"/>
+    <col min="6136" max="6136" width="17.57" customWidth="1"/>
+    <col min="6137" max="6137" width="8.29" customWidth="1"/>
+    <col min="6138" max="6138" width="10.14" customWidth="1"/>
     <col min="6139" max="6139" width="9" customWidth="1"/>
-    <col min="6140" max="6141" width="10.5740740740741" customWidth="1"/>
-    <col min="6142" max="6142" width="10.4259259259259" customWidth="1"/>
-    <col min="6143" max="6143" width="10.5740740740741" customWidth="1"/>
+    <col min="6140" max="6141" width="10.57" customWidth="1"/>
+    <col min="6142" max="6142" width="10.43" customWidth="1"/>
+    <col min="6143" max="6143" width="10.57" customWidth="1"/>
     <col min="6144" max="6144" width="12" customWidth="1"/>
-    <col min="6145" max="6146" width="10.5740740740741" customWidth="1"/>
-    <col min="6148" max="6148" width="10.287037037037" customWidth="1"/>
-    <col min="6149" max="6149" width="10.5740740740741" customWidth="1"/>
-    <col min="6384" max="6385" width="9.71296296296296" customWidth="1"/>
-    <col min="6386" max="6386" width="19.4259259259259" customWidth="1"/>
-    <col min="6387" max="6389" width="19.5740740740741" customWidth="1"/>
-    <col min="6390" max="6390" width="6.42592592592593" customWidth="1"/>
-    <col min="6391" max="6391" width="11.712962962963" customWidth="1"/>
-    <col min="6392" max="6392" width="17.5740740740741" customWidth="1"/>
-    <col min="6393" max="6393" width="8.28703703703704" customWidth="1"/>
-    <col min="6394" max="6394" width="10.1388888888889" customWidth="1"/>
+    <col min="6145" max="6146" width="10.57" customWidth="1"/>
+    <col min="6148" max="6148" width="10.29" customWidth="1"/>
+    <col min="6149" max="6149" width="10.57" customWidth="1"/>
+    <col min="6384" max="6385" width="9.71" customWidth="1"/>
+    <col min="6386" max="6386" width="19.43" customWidth="1"/>
+    <col min="6387" max="6389" width="19.57" customWidth="1"/>
+    <col min="6390" max="6390" width="6.43" customWidth="1"/>
+    <col min="6391" max="6391" width="11.71" customWidth="1"/>
+    <col min="6392" max="6392" width="17.57" customWidth="1"/>
+    <col min="6393" max="6393" width="8.29" customWidth="1"/>
+    <col min="6394" max="6394" width="10.14" customWidth="1"/>
     <col min="6395" max="6395" width="9" customWidth="1"/>
-    <col min="6396" max="6397" width="10.5740740740741" customWidth="1"/>
-    <col min="6398" max="6398" width="10.4259259259259" customWidth="1"/>
-    <col min="6399" max="6399" width="10.5740740740741" customWidth="1"/>
+    <col min="6396" max="6397" width="10.57" customWidth="1"/>
+    <col min="6398" max="6398" width="10.43" customWidth="1"/>
+    <col min="6399" max="6399" width="10.57" customWidth="1"/>
     <col min="6400" max="6400" width="12" customWidth="1"/>
-    <col min="6401" max="6402" width="10.5740740740741" customWidth="1"/>
-    <col min="6404" max="6404" width="10.287037037037" customWidth="1"/>
-    <col min="6405" max="6405" width="10.5740740740741" customWidth="1"/>
-    <col min="6640" max="6641" width="9.71296296296296" customWidth="1"/>
-    <col min="6642" max="6642" width="19.4259259259259" customWidth="1"/>
-    <col min="6643" max="6645" width="19.5740740740741" customWidth="1"/>
-    <col min="6646" max="6646" width="6.42592592592593" customWidth="1"/>
-    <col min="6647" max="6647" width="11.712962962963" customWidth="1"/>
-    <col min="6648" max="6648" width="17.5740740740741" customWidth="1"/>
-    <col min="6649" max="6649" width="8.28703703703704" customWidth="1"/>
-    <col min="6650" max="6650" width="10.1388888888889" customWidth="1"/>
+    <col min="6401" max="6402" width="10.57" customWidth="1"/>
+    <col min="6404" max="6404" width="10.29" customWidth="1"/>
+    <col min="6405" max="6405" width="10.57" customWidth="1"/>
+    <col min="6640" max="6641" width="9.71" customWidth="1"/>
+    <col min="6642" max="6642" width="19.43" customWidth="1"/>
+    <col min="6643" max="6645" width="19.57" customWidth="1"/>
+    <col min="6646" max="6646" width="6.43" customWidth="1"/>
+    <col min="6647" max="6647" width="11.71" customWidth="1"/>
+    <col min="6648" max="6648" width="17.57" customWidth="1"/>
+    <col min="6649" max="6649" width="8.29" customWidth="1"/>
+    <col min="6650" max="6650" width="10.14" customWidth="1"/>
     <col min="6651" max="6651" width="9" customWidth="1"/>
-    <col min="6652" max="6653" width="10.5740740740741" customWidth="1"/>
-    <col min="6654" max="6654" width="10.4259259259259" customWidth="1"/>
-    <col min="6655" max="6655" width="10.5740740740741" customWidth="1"/>
+    <col min="6652" max="6653" width="10.57" customWidth="1"/>
+    <col min="6654" max="6654" width="10.43" customWidth="1"/>
+    <col min="6655" max="6655" width="10.57" customWidth="1"/>
     <col min="6656" max="6656" width="12" customWidth="1"/>
-    <col min="6657" max="6658" width="10.5740740740741" customWidth="1"/>
-    <col min="6660" max="6660" width="10.287037037037" customWidth="1"/>
-    <col min="6661" max="6661" width="10.5740740740741" customWidth="1"/>
-    <col min="6896" max="6897" width="9.71296296296296" customWidth="1"/>
-    <col min="6898" max="6898" width="19.4259259259259" customWidth="1"/>
-    <col min="6899" max="6901" width="19.5740740740741" customWidth="1"/>
-    <col min="6902" max="6902" width="6.42592592592593" customWidth="1"/>
-    <col min="6903" max="6903" width="11.712962962963" customWidth="1"/>
-    <col min="6904" max="6904" width="17.5740740740741" customWidth="1"/>
-    <col min="6905" max="6905" width="8.28703703703704" customWidth="1"/>
-    <col min="6906" max="6906" width="10.1388888888889" customWidth="1"/>
+    <col min="6657" max="6658" width="10.57" customWidth="1"/>
+    <col min="6660" max="6660" width="10.29" customWidth="1"/>
+    <col min="6661" max="6661" width="10.57" customWidth="1"/>
+    <col min="6896" max="6897" width="9.71" customWidth="1"/>
+    <col min="6898" max="6898" width="19.43" customWidth="1"/>
+    <col min="6899" max="6901" width="19.57" customWidth="1"/>
+    <col min="6902" max="6902" width="6.43" customWidth="1"/>
+    <col min="6903" max="6903" width="11.71" customWidth="1"/>
+    <col min="6904" max="6904" width="17.57" customWidth="1"/>
+    <col min="6905" max="6905" width="8.29" customWidth="1"/>
+    <col min="6906" max="6906" width="10.14" customWidth="1"/>
     <col min="6907" max="6907" width="9" customWidth="1"/>
-    <col min="6908" max="6909" width="10.5740740740741" customWidth="1"/>
-    <col min="6910" max="6910" width="10.4259259259259" customWidth="1"/>
-    <col min="6911" max="6911" width="10.5740740740741" customWidth="1"/>
+    <col min="6908" max="6909" width="10.57" customWidth="1"/>
+    <col min="6910" max="6910" width="10.43" customWidth="1"/>
+    <col min="6911" max="6911" width="10.57" customWidth="1"/>
     <col min="6912" max="6912" width="12" customWidth="1"/>
-    <col min="6913" max="6914" width="10.5740740740741" customWidth="1"/>
-    <col min="6916" max="6916" width="10.287037037037" customWidth="1"/>
-    <col min="6917" max="6917" width="10.5740740740741" customWidth="1"/>
-    <col min="7152" max="7153" width="9.71296296296296" customWidth="1"/>
-    <col min="7154" max="7154" width="19.4259259259259" customWidth="1"/>
-    <col min="7155" max="7157" width="19.5740740740741" customWidth="1"/>
-    <col min="7158" max="7158" width="6.42592592592593" customWidth="1"/>
-    <col min="7159" max="7159" width="11.712962962963" customWidth="1"/>
-    <col min="7160" max="7160" width="17.5740740740741" customWidth="1"/>
-    <col min="7161" max="7161" width="8.28703703703704" customWidth="1"/>
-    <col min="7162" max="7162" width="10.1388888888889" customWidth="1"/>
+    <col min="6913" max="6914" width="10.57" customWidth="1"/>
+    <col min="6916" max="6916" width="10.29" customWidth="1"/>
+    <col min="6917" max="6917" width="10.57" customWidth="1"/>
+    <col min="7152" max="7153" width="9.71" customWidth="1"/>
+    <col min="7154" max="7154" width="19.43" customWidth="1"/>
+    <col min="7155" max="7157" width="19.57" customWidth="1"/>
+    <col min="7158" max="7158" width="6.43" customWidth="1"/>
+    <col min="7159" max="7159" width="11.71" customWidth="1"/>
+    <col min="7160" max="7160" width="17.57" customWidth="1"/>
+    <col min="7161" max="7161" width="8.29" customWidth="1"/>
+    <col min="7162" max="7162" width="10.14" customWidth="1"/>
     <col min="7163" max="7163" width="9" customWidth="1"/>
-    <col min="7164" max="7165" width="10.5740740740741" customWidth="1"/>
-    <col min="7166" max="7166" width="10.4259259259259" customWidth="1"/>
-    <col min="7167" max="7167" width="10.5740740740741" customWidth="1"/>
+    <col min="7164" max="7165" width="10.57" customWidth="1"/>
+    <col min="7166" max="7166" width="10.43" customWidth="1"/>
+    <col min="7167" max="7167" width="10.57" customWidth="1"/>
     <col min="7168" max="7168" width="12" customWidth="1"/>
-    <col min="7169" max="7170" width="10.5740740740741" customWidth="1"/>
-    <col min="7172" max="7172" width="10.287037037037" customWidth="1"/>
-    <col min="7173" max="7173" width="10.5740740740741" customWidth="1"/>
-    <col min="7408" max="7409" width="9.71296296296296" customWidth="1"/>
-    <col min="7410" max="7410" width="19.4259259259259" customWidth="1"/>
-    <col min="7411" max="7413" width="19.5740740740741" customWidth="1"/>
-    <col min="7414" max="7414" width="6.42592592592593" customWidth="1"/>
-    <col min="7415" max="7415" width="11.712962962963" customWidth="1"/>
-    <col min="7416" max="7416" width="17.5740740740741" customWidth="1"/>
-    <col min="7417" max="7417" width="8.28703703703704" customWidth="1"/>
-    <col min="7418" max="7418" width="10.1388888888889" customWidth="1"/>
+    <col min="7169" max="7170" width="10.57" customWidth="1"/>
+    <col min="7172" max="7172" width="10.29" customWidth="1"/>
+    <col min="7173" max="7173" width="10.57" customWidth="1"/>
+    <col min="7408" max="7409" width="9.71" customWidth="1"/>
+    <col min="7410" max="7410" width="19.43" customWidth="1"/>
+    <col min="7411" max="7413" width="19.57" customWidth="1"/>
+    <col min="7414" max="7414" width="6.43" customWidth="1"/>
+    <col min="7415" max="7415" width="11.71" customWidth="1"/>
+    <col min="7416" max="7416" width="17.57" customWidth="1"/>
+    <col min="7417" max="7417" width="8.29" customWidth="1"/>
+    <col min="7418" max="7418" width="10.14" customWidth="1"/>
     <col min="7419" max="7419" width="9" customWidth="1"/>
-    <col min="7420" max="7421" width="10.5740740740741" customWidth="1"/>
-    <col min="7422" max="7422" width="10.4259259259259" customWidth="1"/>
-    <col min="7423" max="7423" width="10.5740740740741" customWidth="1"/>
+    <col min="7420" max="7421" width="10.57" customWidth="1"/>
+    <col min="7422" max="7422" width="10.43" customWidth="1"/>
+    <col min="7423" max="7423" width="10.57" customWidth="1"/>
     <col min="7424" max="7424" width="12" customWidth="1"/>
-    <col min="7425" max="7426" width="10.5740740740741" customWidth="1"/>
-    <col min="7428" max="7428" width="10.287037037037" customWidth="1"/>
-    <col min="7429" max="7429" width="10.5740740740741" customWidth="1"/>
-    <col min="7664" max="7665" width="9.71296296296296" customWidth="1"/>
-    <col min="7666" max="7666" width="19.4259259259259" customWidth="1"/>
-    <col min="7667" max="7669" width="19.5740740740741" customWidth="1"/>
-    <col min="7670" max="7670" width="6.42592592592593" customWidth="1"/>
-    <col min="7671" max="7671" width="11.712962962963" customWidth="1"/>
-    <col min="7672" max="7672" width="17.5740740740741" customWidth="1"/>
-    <col min="7673" max="7673" width="8.28703703703704" customWidth="1"/>
-    <col min="7674" max="7674" width="10.1388888888889" customWidth="1"/>
+    <col min="7425" max="7426" width="10.57" customWidth="1"/>
+    <col min="7428" max="7428" width="10.29" customWidth="1"/>
+    <col min="7429" max="7429" width="10.57" customWidth="1"/>
+    <col min="7664" max="7665" width="9.71" customWidth="1"/>
+    <col min="7666" max="7666" width="19.43" customWidth="1"/>
+    <col min="7667" max="7669" width="19.57" customWidth="1"/>
+    <col min="7670" max="7670" width="6.43" customWidth="1"/>
+    <col min="7671" max="7671" width="11.71" customWidth="1"/>
+    <col min="7672" max="7672" width="17.57" customWidth="1"/>
+    <col min="7673" max="7673" width="8.29" customWidth="1"/>
+    <col min="7674" max="7674" width="10.14" customWidth="1"/>
     <col min="7675" max="7675" width="9" customWidth="1"/>
-    <col min="7676" max="7677" width="10.5740740740741" customWidth="1"/>
-    <col min="7678" max="7678" width="10.4259259259259" customWidth="1"/>
-    <col min="7679" max="7679" width="10.5740740740741" customWidth="1"/>
+    <col min="7676" max="7677" width="10.57" customWidth="1"/>
+    <col min="7678" max="7678" width="10.43" customWidth="1"/>
+    <col min="7679" max="7679" width="10.57" customWidth="1"/>
     <col min="7680" max="7680" width="12" customWidth="1"/>
-    <col min="7681" max="7682" width="10.5740740740741" customWidth="1"/>
-    <col min="7684" max="7684" width="10.287037037037" customWidth="1"/>
-    <col min="7685" max="7685" width="10.5740740740741" customWidth="1"/>
-    <col min="7920" max="7921" width="9.71296296296296" customWidth="1"/>
-    <col min="7922" max="7922" width="19.4259259259259" customWidth="1"/>
-    <col min="7923" max="7925" width="19.5740740740741" customWidth="1"/>
-    <col min="7926" max="7926" width="6.42592592592593" customWidth="1"/>
-    <col min="7927" max="7927" width="11.712962962963" customWidth="1"/>
-    <col min="7928" max="7928" width="17.5740740740741" customWidth="1"/>
-    <col min="7929" max="7929" width="8.28703703703704" customWidth="1"/>
-    <col min="7930" max="7930" width="10.1388888888889" customWidth="1"/>
+    <col min="7681" max="7682" width="10.57" customWidth="1"/>
+    <col min="7684" max="7684" width="10.29" customWidth="1"/>
+    <col min="7685" max="7685" width="10.57" customWidth="1"/>
+    <col min="7920" max="7921" width="9.71" customWidth="1"/>
+    <col min="7922" max="7922" width="19.43" customWidth="1"/>
+    <col min="7923" max="7925" width="19.57" customWidth="1"/>
+    <col min="7926" max="7926" width="6.43" customWidth="1"/>
+    <col min="7927" max="7927" width="11.71" customWidth="1"/>
+    <col min="7928" max="7928" width="17.57" customWidth="1"/>
+    <col min="7929" max="7929" width="8.29" customWidth="1"/>
+    <col min="7930" max="7930" width="10.14" customWidth="1"/>
     <col min="7931" max="7931" width="9" customWidth="1"/>
-    <col min="7932" max="7933" width="10.5740740740741" customWidth="1"/>
-    <col min="7934" max="7934" width="10.4259259259259" customWidth="1"/>
-    <col min="7935" max="7935" width="10.5740740740741" customWidth="1"/>
+    <col min="7932" max="7933" width="10.57" customWidth="1"/>
+    <col min="7934" max="7934" width="10.43" customWidth="1"/>
+    <col min="7935" max="7935" width="10.57" customWidth="1"/>
     <col min="7936" max="7936" width="12" customWidth="1"/>
-    <col min="7937" max="7938" width="10.5740740740741" customWidth="1"/>
-    <col min="7940" max="7940" width="10.287037037037" customWidth="1"/>
-    <col min="7941" max="7941" width="10.5740740740741" customWidth="1"/>
-    <col min="8176" max="8177" width="9.71296296296296" customWidth="1"/>
-    <col min="8178" max="8178" width="19.4259259259259" customWidth="1"/>
-    <col min="8179" max="8181" width="19.5740740740741" customWidth="1"/>
-    <col min="8182" max="8182" width="6.42592592592593" customWidth="1"/>
-    <col min="8183" max="8183" width="11.712962962963" customWidth="1"/>
-    <col min="8184" max="8184" width="17.5740740740741" customWidth="1"/>
-    <col min="8185" max="8185" width="8.28703703703704" customWidth="1"/>
-    <col min="8186" max="8186" width="10.1388888888889" customWidth="1"/>
+    <col min="7937" max="7938" width="10.57" customWidth="1"/>
+    <col min="7940" max="7940" width="10.29" customWidth="1"/>
+    <col min="7941" max="7941" width="10.57" customWidth="1"/>
+    <col min="8176" max="8177" width="9.71" customWidth="1"/>
+    <col min="8178" max="8178" width="19.43" customWidth="1"/>
+    <col min="8179" max="8181" width="19.57" customWidth="1"/>
+    <col min="8182" max="8182" width="6.43" customWidth="1"/>
+    <col min="8183" max="8183" width="11.71" customWidth="1"/>
+    <col min="8184" max="8184" width="17.57" customWidth="1"/>
+    <col min="8185" max="8185" width="8.29" customWidth="1"/>
+    <col min="8186" max="8186" width="10.14" customWidth="1"/>
     <col min="8187" max="8187" width="9" customWidth="1"/>
-    <col min="8188" max="8189" width="10.5740740740741" customWidth="1"/>
-    <col min="8190" max="8190" width="10.4259259259259" customWidth="1"/>
-    <col min="8191" max="8191" width="10.5740740740741" customWidth="1"/>
+    <col min="8188" max="8189" width="10.57" customWidth="1"/>
+    <col min="8190" max="8190" width="10.43" customWidth="1"/>
+    <col min="8191" max="8191" width="10.57" customWidth="1"/>
     <col min="8192" max="8192" width="12" customWidth="1"/>
-    <col min="8193" max="8194" width="10.5740740740741" customWidth="1"/>
-    <col min="8196" max="8196" width="10.287037037037" customWidth="1"/>
-    <col min="8197" max="8197" width="10.5740740740741" customWidth="1"/>
-    <col min="8432" max="8433" width="9.71296296296296" customWidth="1"/>
-    <col min="8434" max="8434" width="19.4259259259259" customWidth="1"/>
-    <col min="8435" max="8437" width="19.5740740740741" customWidth="1"/>
-    <col min="8438" max="8438" width="6.42592592592593" customWidth="1"/>
-    <col min="8439" max="8439" width="11.712962962963" customWidth="1"/>
-    <col min="8440" max="8440" width="17.5740740740741" customWidth="1"/>
-    <col min="8441" max="8441" width="8.28703703703704" customWidth="1"/>
-    <col min="8442" max="8442" width="10.1388888888889" customWidth="1"/>
+    <col min="8193" max="8194" width="10.57" customWidth="1"/>
+    <col min="8196" max="8196" width="10.29" customWidth="1"/>
+    <col min="8197" max="8197" width="10.57" customWidth="1"/>
+    <col min="8432" max="8433" width="9.71" customWidth="1"/>
+    <col min="8434" max="8434" width="19.43" customWidth="1"/>
+    <col min="8435" max="8437" width="19.57" customWidth="1"/>
+    <col min="8438" max="8438" width="6.43" customWidth="1"/>
+    <col min="8439" max="8439" width="11.71" customWidth="1"/>
+    <col min="8440" max="8440" width="17.57" customWidth="1"/>
+    <col min="8441" max="8441" width="8.29" customWidth="1"/>
+    <col min="8442" max="8442" width="10.14" customWidth="1"/>
     <col min="8443" max="8443" width="9" customWidth="1"/>
-    <col min="8444" max="8445" width="10.5740740740741" customWidth="1"/>
-    <col min="8446" max="8446" width="10.4259259259259" customWidth="1"/>
-    <col min="8447" max="8447" width="10.5740740740741" customWidth="1"/>
+    <col min="8444" max="8445" width="10.57" customWidth="1"/>
+    <col min="8446" max="8446" width="10.43" customWidth="1"/>
+    <col min="8447" max="8447" width="10.57" customWidth="1"/>
     <col min="8448" max="8448" width="12" customWidth="1"/>
-    <col min="8449" max="8450" width="10.5740740740741" customWidth="1"/>
-    <col min="8452" max="8452" width="10.287037037037" customWidth="1"/>
-    <col min="8453" max="8453" width="10.5740740740741" customWidth="1"/>
-    <col min="8688" max="8689" width="9.71296296296296" customWidth="1"/>
-    <col min="8690" max="8690" width="19.4259259259259" customWidth="1"/>
-    <col min="8691" max="8693" width="19.5740740740741" customWidth="1"/>
-    <col min="8694" max="8694" width="6.42592592592593" customWidth="1"/>
-    <col min="8695" max="8695" width="11.712962962963" customWidth="1"/>
-    <col min="8696" max="8696" width="17.5740740740741" customWidth="1"/>
-    <col min="8697" max="8697" width="8.28703703703704" customWidth="1"/>
-    <col min="8698" max="8698" width="10.1388888888889" customWidth="1"/>
+    <col min="8449" max="8450" width="10.57" customWidth="1"/>
+    <col min="8452" max="8452" width="10.29" customWidth="1"/>
+    <col min="8453" max="8453" width="10.57" customWidth="1"/>
+    <col min="8688" max="8689" width="9.71" customWidth="1"/>
+    <col min="8690" max="8690" width="19.43" customWidth="1"/>
+    <col min="8691" max="8693" width="19.57" customWidth="1"/>
+    <col min="8694" max="8694" width="6.43" customWidth="1"/>
+    <col min="8695" max="8695" width="11.71" customWidth="1"/>
+    <col min="8696" max="8696" width="17.57" customWidth="1"/>
+    <col min="8697" max="8697" width="8.29" customWidth="1"/>
+    <col min="8698" max="8698" width="10.14" customWidth="1"/>
     <col min="8699" max="8699" width="9" customWidth="1"/>
-    <col min="8700" max="8701" width="10.5740740740741" customWidth="1"/>
-    <col min="8702" max="8702" width="10.4259259259259" customWidth="1"/>
-    <col min="8703" max="8703" width="10.5740740740741" customWidth="1"/>
+    <col min="8700" max="8701" width="10.57" customWidth="1"/>
+    <col min="8702" max="8702" width="10.43" customWidth="1"/>
+    <col min="8703" max="8703" width="10.57" customWidth="1"/>
     <col min="8704" max="8704" width="12" customWidth="1"/>
-    <col min="8705" max="8706" width="10.5740740740741" customWidth="1"/>
-    <col min="8708" max="8708" width="10.287037037037" customWidth="1"/>
-    <col min="8709" max="8709" width="10.5740740740741" customWidth="1"/>
-    <col min="8944" max="8945" width="9.71296296296296" customWidth="1"/>
-    <col min="8946" max="8946" width="19.4259259259259" customWidth="1"/>
-    <col min="8947" max="8949" width="19.5740740740741" customWidth="1"/>
-    <col min="8950" max="8950" width="6.42592592592593" customWidth="1"/>
-    <col min="8951" max="8951" width="11.712962962963" customWidth="1"/>
-    <col min="8952" max="8952" width="17.5740740740741" customWidth="1"/>
-    <col min="8953" max="8953" width="8.28703703703704" customWidth="1"/>
-    <col min="8954" max="8954" width="10.1388888888889" customWidth="1"/>
+    <col min="8705" max="8706" width="10.57" customWidth="1"/>
+    <col min="8708" max="8708" width="10.29" customWidth="1"/>
+    <col min="8709" max="8709" width="10.57" customWidth="1"/>
+    <col min="8944" max="8945" width="9.71" customWidth="1"/>
+    <col min="8946" max="8946" width="19.43" customWidth="1"/>
+    <col min="8947" max="8949" width="19.57" customWidth="1"/>
+    <col min="8950" max="8950" width="6.43" customWidth="1"/>
+    <col min="8951" max="8951" width="11.71" customWidth="1"/>
+    <col min="8952" max="8952" width="17.57" customWidth="1"/>
+    <col min="8953" max="8953" width="8.29" customWidth="1"/>
+    <col min="8954" max="8954" width="10.14" customWidth="1"/>
     <col min="8955" max="8955" width="9" customWidth="1"/>
-    <col min="8956" max="8957" width="10.5740740740741" customWidth="1"/>
-    <col min="8958" max="8958" width="10.4259259259259" customWidth="1"/>
-    <col min="8959" max="8959" width="10.5740740740741" customWidth="1"/>
+    <col min="8956" max="8957" width="10.57" customWidth="1"/>
+    <col min="8958" max="8958" width="10.43" customWidth="1"/>
+    <col min="8959" max="8959" width="10.57" customWidth="1"/>
     <col min="8960" max="8960" width="12" customWidth="1"/>
-    <col min="8961" max="8962" width="10.5740740740741" customWidth="1"/>
-    <col min="8964" max="8964" width="10.287037037037" customWidth="1"/>
-    <col min="8965" max="8965" width="10.5740740740741" customWidth="1"/>
-    <col min="9200" max="9201" width="9.71296296296296" customWidth="1"/>
-    <col min="9202" max="9202" width="19.4259259259259" customWidth="1"/>
-    <col min="9203" max="9205" width="19.5740740740741" customWidth="1"/>
-    <col min="9206" max="9206" width="6.42592592592593" customWidth="1"/>
-    <col min="9207" max="9207" width="11.712962962963" customWidth="1"/>
-    <col min="9208" max="9208" width="17.5740740740741" customWidth="1"/>
-    <col min="9209" max="9209" width="8.28703703703704" customWidth="1"/>
-    <col min="9210" max="9210" width="10.1388888888889" customWidth="1"/>
+    <col min="8961" max="8962" width="10.57" customWidth="1"/>
+    <col min="8964" max="8964" width="10.29" customWidth="1"/>
+    <col min="8965" max="8965" width="10.57" customWidth="1"/>
+    <col min="9200" max="9201" width="9.71" customWidth="1"/>
+    <col min="9202" max="9202" width="19.43" customWidth="1"/>
+    <col min="9203" max="9205" width="19.57" customWidth="1"/>
+    <col min="9206" max="9206" width="6.43" customWidth="1"/>
+    <col min="9207" max="9207" width="11.71" customWidth="1"/>
+    <col min="9208" max="9208" width="17.57" customWidth="1"/>
+    <col min="9209" max="9209" width="8.29" customWidth="1"/>
+    <col min="9210" max="9210" width="10.14" customWidth="1"/>
     <col min="9211" max="9211" width="9" customWidth="1"/>
-    <col min="9212" max="9213" width="10.5740740740741" customWidth="1"/>
-    <col min="9214" max="9214" width="10.4259259259259" customWidth="1"/>
-    <col min="9215" max="9215" width="10.5740740740741" customWidth="1"/>
+    <col min="9212" max="9213" width="10.57" customWidth="1"/>
+    <col min="9214" max="9214" width="10.43" customWidth="1"/>
+    <col min="9215" max="9215" width="10.57" customWidth="1"/>
     <col min="9216" max="9216" width="12" customWidth="1"/>
-    <col min="9217" max="9218" width="10.5740740740741" customWidth="1"/>
-    <col min="9220" max="9220" width="10.287037037037" customWidth="1"/>
-    <col min="9221" max="9221" width="10.5740740740741" customWidth="1"/>
-    <col min="9456" max="9457" width="9.71296296296296" customWidth="1"/>
-    <col min="9458" max="9458" width="19.4259259259259" customWidth="1"/>
-    <col min="9459" max="9461" width="19.5740740740741" customWidth="1"/>
-    <col min="9462" max="9462" width="6.42592592592593" customWidth="1"/>
-    <col min="9463" max="9463" width="11.712962962963" customWidth="1"/>
-    <col min="9464" max="9464" width="17.5740740740741" customWidth="1"/>
-    <col min="9465" max="9465" width="8.28703703703704" customWidth="1"/>
-    <col min="9466" max="9466" width="10.1388888888889" customWidth="1"/>
+    <col min="9217" max="9218" width="10.57" customWidth="1"/>
+    <col min="9220" max="9220" width="10.29" customWidth="1"/>
+    <col min="9221" max="9221" width="10.57" customWidth="1"/>
+    <col min="9456" max="9457" width="9.71" customWidth="1"/>
+    <col min="9458" max="9458" width="19.43" customWidth="1"/>
+    <col min="9459" max="9461" width="19.57" customWidth="1"/>
+    <col min="9462" max="9462" width="6.43" customWidth="1"/>
+    <col min="9463" max="9463" width="11.71" customWidth="1"/>
+    <col min="9464" max="9464" width="17.57" customWidth="1"/>
+    <col min="9465" max="9465" width="8.29" customWidth="1"/>
+    <col min="9466" max="9466" width="10.14" customWidth="1"/>
     <col min="9467" max="9467" width="9" customWidth="1"/>
-    <col min="9468" max="9469" width="10.5740740740741" customWidth="1"/>
-    <col min="9470" max="9470" width="10.4259259259259" customWidth="1"/>
-    <col min="9471" max="9471" width="10.5740740740741" customWidth="1"/>
+    <col min="9468" max="9469" width="10.57" customWidth="1"/>
+    <col min="9470" max="9470" width="10.43" customWidth="1"/>
+    <col min="9471" max="9471" width="10.57" customWidth="1"/>
     <col min="9472" max="9472" width="12" customWidth="1"/>
-    <col min="9473" max="9474" width="10.5740740740741" customWidth="1"/>
-    <col min="9476" max="9476" width="10.287037037037" customWidth="1"/>
-    <col min="9477" max="9477" width="10.5740740740741" customWidth="1"/>
-    <col min="9712" max="9713" width="9.71296296296296" customWidth="1"/>
-    <col min="9714" max="9714" width="19.4259259259259" customWidth="1"/>
-    <col min="9715" max="9717" width="19.5740740740741" customWidth="1"/>
-    <col min="9718" max="9718" width="6.42592592592593" customWidth="1"/>
-    <col min="9719" max="9719" width="11.712962962963" customWidth="1"/>
-    <col min="9720" max="9720" width="17.5740740740741" customWidth="1"/>
-    <col min="9721" max="9721" width="8.28703703703704" customWidth="1"/>
-    <col min="9722" max="9722" width="10.1388888888889" customWidth="1"/>
+    <col min="9473" max="9474" width="10.57" customWidth="1"/>
+    <col min="9476" max="9476" width="10.29" customWidth="1"/>
+    <col min="9477" max="9477" width="10.57" customWidth="1"/>
+    <col min="9712" max="9713" width="9.71" customWidth="1"/>
+    <col min="9714" max="9714" width="19.43" customWidth="1"/>
+    <col min="9715" max="9717" width="19.57" customWidth="1"/>
+    <col min="9718" max="9718" width="6.43" customWidth="1"/>
+    <col min="9719" max="9719" width="11.71" customWidth="1"/>
+    <col min="9720" max="9720" width="17.57" customWidth="1"/>
+    <col min="9721" max="9721" width="8.29" customWidth="1"/>
+    <col min="9722" max="9722" width="10.14" customWidth="1"/>
     <col min="9723" max="9723" width="9" customWidth="1"/>
-    <col min="9724" max="9725" width="10.5740740740741" customWidth="1"/>
-    <col min="9726" max="9726" width="10.4259259259259" customWidth="1"/>
-    <col min="9727" max="9727" width="10.5740740740741" customWidth="1"/>
+    <col min="9724" max="9725" width="10.57" customWidth="1"/>
+    <col min="9726" max="9726" width="10.43" customWidth="1"/>
+    <col min="9727" max="9727" width="10.57" customWidth="1"/>
     <col min="9728" max="9728" width="12" customWidth="1"/>
-    <col min="9729" max="9730" width="10.5740740740741" customWidth="1"/>
-    <col min="9732" max="9732" width="10.287037037037" customWidth="1"/>
-    <col min="9733" max="9733" width="10.5740740740741" customWidth="1"/>
-    <col min="9968" max="9969" width="9.71296296296296" customWidth="1"/>
-    <col min="9970" max="9970" width="19.4259259259259" customWidth="1"/>
-    <col min="9971" max="9973" width="19.5740740740741" customWidth="1"/>
-    <col min="9974" max="9974" width="6.42592592592593" customWidth="1"/>
-    <col min="9975" max="9975" width="11.712962962963" customWidth="1"/>
-    <col min="9976" max="9976" width="17.5740740740741" customWidth="1"/>
-    <col min="9977" max="9977" width="8.28703703703704" customWidth="1"/>
-    <col min="9978" max="9978" width="10.1388888888889" customWidth="1"/>
+    <col min="9729" max="9730" width="10.57" customWidth="1"/>
+    <col min="9732" max="9732" width="10.29" customWidth="1"/>
+    <col min="9733" max="9733" width="10.57" customWidth="1"/>
+    <col min="9968" max="9969" width="9.71" customWidth="1"/>
+    <col min="9970" max="9970" width="19.43" customWidth="1"/>
+    <col min="9971" max="9973" width="19.57" customWidth="1"/>
+    <col min="9974" max="9974" width="6.43" customWidth="1"/>
+    <col min="9975" max="9975" width="11.71" customWidth="1"/>
+    <col min="9976" max="9976" width="17.57" customWidth="1"/>
+    <col min="9977" max="9977" width="8.29" customWidth="1"/>
+    <col min="9978" max="9978" width="10.14" customWidth="1"/>
     <col min="9979" max="9979" width="9" customWidth="1"/>
-    <col min="9980" max="9981" width="10.5740740740741" customWidth="1"/>
-    <col min="9982" max="9982" width="10.4259259259259" customWidth="1"/>
-    <col min="9983" max="9983" width="10.5740740740741" customWidth="1"/>
+    <col min="9980" max="9981" width="10.57" customWidth="1"/>
+    <col min="9982" max="9982" width="10.43" customWidth="1"/>
+    <col min="9983" max="9983" width="10.57" customWidth="1"/>
     <col min="9984" max="9984" width="12" customWidth="1"/>
-    <col min="9985" max="9986" width="10.5740740740741" customWidth="1"/>
-    <col min="9988" max="9988" width="10.287037037037" customWidth="1"/>
-    <col min="9989" max="9989" width="10.5740740740741" customWidth="1"/>
-    <col min="10224" max="10225" width="9.71296296296296" customWidth="1"/>
-    <col min="10226" max="10226" width="19.4259259259259" customWidth="1"/>
-    <col min="10227" max="10229" width="19.5740740740741" customWidth="1"/>
-    <col min="10230" max="10230" width="6.42592592592593" customWidth="1"/>
-    <col min="10231" max="10231" width="11.712962962963" customWidth="1"/>
-    <col min="10232" max="10232" width="17.5740740740741" customWidth="1"/>
-    <col min="10233" max="10233" width="8.28703703703704" customWidth="1"/>
-    <col min="10234" max="10234" width="10.1388888888889" customWidth="1"/>
+    <col min="9985" max="9986" width="10.57" customWidth="1"/>
+    <col min="9988" max="9988" width="10.29" customWidth="1"/>
+    <col min="9989" max="9989" width="10.57" customWidth="1"/>
+    <col min="10224" max="10225" width="9.71" customWidth="1"/>
+    <col min="10226" max="10226" width="19.43" customWidth="1"/>
+    <col min="10227" max="10229" width="19.57" customWidth="1"/>
+    <col min="10230" max="10230" width="6.43" customWidth="1"/>
+    <col min="10231" max="10231" width="11.71" customWidth="1"/>
+    <col min="10232" max="10232" width="17.57" customWidth="1"/>
+    <col min="10233" max="10233" width="8.29" customWidth="1"/>
+    <col min="10234" max="10234" width="10.14" customWidth="1"/>
     <col min="10235" max="10235" width="9" customWidth="1"/>
-    <col min="10236" max="10237" width="10.5740740740741" customWidth="1"/>
-    <col min="10238" max="10238" width="10.4259259259259" customWidth="1"/>
-    <col min="10239" max="10239" width="10.5740740740741" customWidth="1"/>
+    <col min="10236" max="10237" width="10.57" customWidth="1"/>
+    <col min="10238" max="10238" width="10.43" customWidth="1"/>
+    <col min="10239" max="10239" width="10.57" customWidth="1"/>
     <col min="10240" max="10240" width="12" customWidth="1"/>
-    <col min="10241" max="10242" width="10.5740740740741" customWidth="1"/>
-    <col min="10244" max="10244" width="10.287037037037" customWidth="1"/>
-    <col min="10245" max="10245" width="10.5740740740741" customWidth="1"/>
-    <col min="10480" max="10481" width="9.71296296296296" customWidth="1"/>
-    <col min="10482" max="10482" width="19.4259259259259" customWidth="1"/>
-    <col min="10483" max="10485" width="19.5740740740741" customWidth="1"/>
-    <col min="10486" max="10486" width="6.42592592592593" customWidth="1"/>
-    <col min="10487" max="10487" width="11.712962962963" customWidth="1"/>
-    <col min="10488" max="10488" width="17.5740740740741" customWidth="1"/>
-    <col min="10489" max="10489" width="8.28703703703704" customWidth="1"/>
-    <col min="10490" max="10490" width="10.1388888888889" customWidth="1"/>
+    <col min="10241" max="10242" width="10.57" customWidth="1"/>
+    <col min="10244" max="10244" width="10.29" customWidth="1"/>
+    <col min="10245" max="10245" width="10.57" customWidth="1"/>
+    <col min="10480" max="10481" width="9.71" customWidth="1"/>
+    <col min="10482" max="10482" width="19.43" customWidth="1"/>
+    <col min="10483" max="10485" width="19.57" customWidth="1"/>
+    <col min="10486" max="10486" width="6.43" customWidth="1"/>
+    <col min="10487" max="10487" width="11.71" customWidth="1"/>
+    <col min="10488" max="10488" width="17.57" customWidth="1"/>
+    <col min="10489" max="10489" width="8.29" customWidth="1"/>
+    <col min="10490" max="10490" width="10.14" customWidth="1"/>
     <col min="10491" max="10491" width="9" customWidth="1"/>
-    <col min="10492" max="10493" width="10.5740740740741" customWidth="1"/>
-    <col min="10494" max="10494" width="10.4259259259259" customWidth="1"/>
-    <col min="10495" max="10495" width="10.5740740740741" customWidth="1"/>
+    <col min="10492" max="10493" width="10.57" customWidth="1"/>
+    <col min="10494" max="10494" width="10.43" customWidth="1"/>
+    <col min="10495" max="10495" width="10.57" customWidth="1"/>
     <col min="10496" max="10496" width="12" customWidth="1"/>
-    <col min="10497" max="10498" width="10.5740740740741" customWidth="1"/>
-    <col min="10500" max="10500" width="10.287037037037" customWidth="1"/>
-    <col min="10501" max="10501" width="10.5740740740741" customWidth="1"/>
-    <col min="10736" max="10737" width="9.71296296296296" customWidth="1"/>
-    <col min="10738" max="10738" width="19.4259259259259" customWidth="1"/>
-    <col min="10739" max="10741" width="19.5740740740741" customWidth="1"/>
-    <col min="10742" max="10742" width="6.42592592592593" customWidth="1"/>
-    <col min="10743" max="10743" width="11.712962962963" customWidth="1"/>
-    <col min="10744" max="10744" width="17.5740740740741" customWidth="1"/>
-    <col min="10745" max="10745" width="8.28703703703704" customWidth="1"/>
-    <col min="10746" max="10746" width="10.1388888888889" customWidth="1"/>
+    <col min="10497" max="10498" width="10.57" customWidth="1"/>
+    <col min="10500" max="10500" width="10.29" customWidth="1"/>
+    <col min="10501" max="10501" width="10.57" customWidth="1"/>
+    <col min="10736" max="10737" width="9.71" customWidth="1"/>
+    <col min="10738" max="10738" width="19.43" customWidth="1"/>
+    <col min="10739" max="10741" width="19.57" customWidth="1"/>
+    <col min="10742" max="10742" width="6.43" customWidth="1"/>
+    <col min="10743" max="10743" width="11.71" customWidth="1"/>
+    <col min="10744" max="10744" width="17.57" customWidth="1"/>
+    <col min="10745" max="10745" width="8.29" customWidth="1"/>
+    <col min="10746" max="10746" width="10.14" customWidth="1"/>
     <col min="10747" max="10747" width="9" customWidth="1"/>
-    <col min="10748" max="10749" width="10.5740740740741" customWidth="1"/>
-    <col min="10750" max="10750" width="10.4259259259259" customWidth="1"/>
-    <col min="10751" max="10751" width="10.5740740740741" customWidth="1"/>
+    <col min="10748" max="10749" width="10.57" customWidth="1"/>
+    <col min="10750" max="10750" width="10.43" customWidth="1"/>
+    <col min="10751" max="10751" width="10.57" customWidth="1"/>
     <col min="10752" max="10752" width="12" customWidth="1"/>
-    <col min="10753" max="10754" width="10.5740740740741" customWidth="1"/>
-    <col min="10756" max="10756" width="10.287037037037" customWidth="1"/>
-    <col min="10757" max="10757" width="10.5740740740741" customWidth="1"/>
-    <col min="10992" max="10993" width="9.71296296296296" customWidth="1"/>
-    <col min="10994" max="10994" width="19.4259259259259" customWidth="1"/>
-    <col min="10995" max="10997" width="19.5740740740741" customWidth="1"/>
-    <col min="10998" max="10998" width="6.42592592592593" customWidth="1"/>
-    <col min="10999" max="10999" width="11.712962962963" customWidth="1"/>
-    <col min="11000" max="11000" width="17.5740740740741" customWidth="1"/>
-    <col min="11001" max="11001" width="8.28703703703704" customWidth="1"/>
-    <col min="11002" max="11002" width="10.1388888888889" customWidth="1"/>
+    <col min="10753" max="10754" width="10.57" customWidth="1"/>
+    <col min="10756" max="10756" width="10.29" customWidth="1"/>
+    <col min="10757" max="10757" width="10.57" customWidth="1"/>
+    <col min="10992" max="10993" width="9.71" customWidth="1"/>
+    <col min="10994" max="10994" width="19.43" customWidth="1"/>
+    <col min="10995" max="10997" width="19.57" customWidth="1"/>
+    <col min="10998" max="10998" width="6.43" customWidth="1"/>
+    <col min="10999" max="10999" width="11.71" customWidth="1"/>
+    <col min="11000" max="11000" width="17.57" customWidth="1"/>
+    <col min="11001" max="11001" width="8.29" customWidth="1"/>
+    <col min="11002" max="11002" width="10.14" customWidth="1"/>
     <col min="11003" max="11003" width="9" customWidth="1"/>
-    <col min="11004" max="11005" width="10.5740740740741" customWidth="1"/>
-    <col min="11006" max="11006" width="10.4259259259259" customWidth="1"/>
-    <col min="11007" max="11007" width="10.5740740740741" customWidth="1"/>
+    <col min="11004" max="11005" width="10.57" customWidth="1"/>
+    <col min="11006" max="11006" width="10.43" customWidth="1"/>
+    <col min="11007" max="11007" width="10.57" customWidth="1"/>
     <col min="11008" max="11008" width="12" customWidth="1"/>
-    <col min="11009" max="11010" width="10.5740740740741" customWidth="1"/>
-    <col min="11012" max="11012" width="10.287037037037" customWidth="1"/>
-    <col min="11013" max="11013" width="10.5740740740741" customWidth="1"/>
-    <col min="11248" max="11249" width="9.71296296296296" customWidth="1"/>
-    <col min="11250" max="11250" width="19.4259259259259" customWidth="1"/>
-    <col min="11251" max="11253" width="19.5740740740741" customWidth="1"/>
-    <col min="11254" max="11254" width="6.42592592592593" customWidth="1"/>
-    <col min="11255" max="11255" width="11.712962962963" customWidth="1"/>
-    <col min="11256" max="11256" width="17.5740740740741" customWidth="1"/>
-    <col min="11257" max="11257" width="8.28703703703704" customWidth="1"/>
-    <col min="11258" max="11258" width="10.1388888888889" customWidth="1"/>
+    <col min="11009" max="11010" width="10.57" customWidth="1"/>
+    <col min="11012" max="11012" width="10.29" customWidth="1"/>
+    <col min="11013" max="11013" width="10.57" customWidth="1"/>
+    <col min="11248" max="11249" width="9.71" customWidth="1"/>
+    <col min="11250" max="11250" width="19.43" customWidth="1"/>
+    <col min="11251" max="11253" width="19.57" customWidth="1"/>
+    <col min="11254" max="11254" width="6.43" customWidth="1"/>
+    <col min="11255" max="11255" width="11.71" customWidth="1"/>
+    <col min="11256" max="11256" width="17.57" customWidth="1"/>
+    <col min="11257" max="11257" width="8.29" customWidth="1"/>
+    <col min="11258" max="11258" width="10.14" customWidth="1"/>
     <col min="11259" max="11259" width="9" customWidth="1"/>
-    <col min="11260" max="11261" width="10.5740740740741" customWidth="1"/>
-    <col min="11262" max="11262" width="10.4259259259259" customWidth="1"/>
-    <col min="11263" max="11263" width="10.5740740740741" customWidth="1"/>
+    <col min="11260" max="11261" width="10.57" customWidth="1"/>
+    <col min="11262" max="11262" width="10.43" customWidth="1"/>
+    <col min="11263" max="11263" width="10.57" customWidth="1"/>
     <col min="11264" max="11264" width="12" customWidth="1"/>
-    <col min="11265" max="11266" width="10.5740740740741" customWidth="1"/>
-    <col min="11268" max="11268" width="10.287037037037" customWidth="1"/>
-    <col min="11269" max="11269" width="10.5740740740741" customWidth="1"/>
-    <col min="11504" max="11505" width="9.71296296296296" customWidth="1"/>
-    <col min="11506" max="11506" width="19.4259259259259" customWidth="1"/>
-    <col min="11507" max="11509" width="19.5740740740741" customWidth="1"/>
-    <col min="11510" max="11510" width="6.42592592592593" customWidth="1"/>
-    <col min="11511" max="11511" width="11.712962962963" customWidth="1"/>
-    <col min="11512" max="11512" width="17.5740740740741" customWidth="1"/>
-    <col min="11513" max="11513" width="8.28703703703704" customWidth="1"/>
-    <col min="11514" max="11514" width="10.1388888888889" customWidth="1"/>
+    <col min="11265" max="11266" width="10.57" customWidth="1"/>
+    <col min="11268" max="11268" width="10.29" customWidth="1"/>
+    <col min="11269" max="11269" width="10.57" customWidth="1"/>
+    <col min="11504" max="11505" width="9.71" customWidth="1"/>
+    <col min="11506" max="11506" width="19.43" customWidth="1"/>
+    <col min="11507" max="11509" width="19.57" customWidth="1"/>
+    <col min="11510" max="11510" width="6.43" customWidth="1"/>
+    <col min="11511" max="11511" width="11.71" customWidth="1"/>
+    <col min="11512" max="11512" width="17.57" customWidth="1"/>
+    <col min="11513" max="11513" width="8.29" customWidth="1"/>
+    <col min="11514" max="11514" width="10.14" customWidth="1"/>
     <col min="11515" max="11515" width="9" customWidth="1"/>
-    <col min="11516" max="11517" width="10.5740740740741" customWidth="1"/>
-    <col min="11518" max="11518" width="10.4259259259259" customWidth="1"/>
-    <col min="11519" max="11519" width="10.5740740740741" customWidth="1"/>
+    <col min="11516" max="11517" width="10.57" customWidth="1"/>
+    <col min="11518" max="11518" width="10.43" customWidth="1"/>
+    <col min="11519" max="11519" width="10.57" customWidth="1"/>
     <col min="11520" max="11520" width="12" customWidth="1"/>
-    <col min="11521" max="11522" width="10.5740740740741" customWidth="1"/>
-    <col min="11524" max="11524" width="10.287037037037" customWidth="1"/>
-    <col min="11525" max="11525" width="10.5740740740741" customWidth="1"/>
-    <col min="11760" max="11761" width="9.71296296296296" customWidth="1"/>
-    <col min="11762" max="11762" width="19.4259259259259" customWidth="1"/>
-    <col min="11763" max="11765" width="19.5740740740741" customWidth="1"/>
-    <col min="11766" max="11766" width="6.42592592592593" customWidth="1"/>
-    <col min="11767" max="11767" width="11.712962962963" customWidth="1"/>
-    <col min="11768" max="11768" width="17.5740740740741" customWidth="1"/>
-    <col min="11769" max="11769" width="8.28703703703704" customWidth="1"/>
-    <col min="11770" max="11770" width="10.1388888888889" customWidth="1"/>
+    <col min="11521" max="11522" width="10.57" customWidth="1"/>
+    <col min="11524" max="11524" width="10.29" customWidth="1"/>
+    <col min="11525" max="11525" width="10.57" customWidth="1"/>
+    <col min="11760" max="11761" width="9.71" customWidth="1"/>
+    <col min="11762" max="11762" width="19.43" customWidth="1"/>
+    <col min="11763" max="11765" width="19.57" customWidth="1"/>
+    <col min="11766" max="11766" width="6.43" customWidth="1"/>
+    <col min="11767" max="11767" width="11.71" customWidth="1"/>
+    <col min="11768" max="11768" width="17.57" customWidth="1"/>
+    <col min="11769" max="11769" width="8.29" customWidth="1"/>
+    <col min="11770" max="11770" width="10.14" customWidth="1"/>
     <col min="11771" max="11771" width="9" customWidth="1"/>
-    <col min="11772" max="11773" width="10.5740740740741" customWidth="1"/>
-    <col min="11774" max="11774" width="10.4259259259259" customWidth="1"/>
-    <col min="11775" max="11775" width="10.5740740740741" customWidth="1"/>
+    <col min="11772" max="11773" width="10.57" customWidth="1"/>
+    <col min="11774" max="11774" width="10.43" customWidth="1"/>
+    <col min="11775" max="11775" width="10.57" customWidth="1"/>
     <col min="11776" max="11776" width="12" customWidth="1"/>
-    <col min="11777" max="11778" width="10.5740740740741" customWidth="1"/>
-    <col min="11780" max="11780" width="10.287037037037" customWidth="1"/>
-    <col min="11781" max="11781" width="10.5740740740741" customWidth="1"/>
-    <col min="12016" max="12017" width="9.71296296296296" customWidth="1"/>
-    <col min="12018" max="12018" width="19.4259259259259" customWidth="1"/>
-    <col min="12019" max="12021" width="19.5740740740741" customWidth="1"/>
-    <col min="12022" max="12022" width="6.42592592592593" customWidth="1"/>
-    <col min="12023" max="12023" width="11.712962962963" customWidth="1"/>
-    <col min="12024" max="12024" width="17.5740740740741" customWidth="1"/>
-    <col min="12025" max="12025" width="8.28703703703704" customWidth="1"/>
-    <col min="12026" max="12026" width="10.1388888888889" customWidth="1"/>
+    <col min="11777" max="11778" width="10.57" customWidth="1"/>
+    <col min="11780" max="11780" width="10.29" customWidth="1"/>
+    <col min="11781" max="11781" width="10.57" customWidth="1"/>
+    <col min="12016" max="12017" width="9.71" customWidth="1"/>
+    <col min="12018" max="12018" width="19.43" customWidth="1"/>
+    <col min="12019" max="12021" width="19.57" customWidth="1"/>
+    <col min="12022" max="12022" width="6.43" customWidth="1"/>
+    <col min="12023" max="12023" width="11.71" customWidth="1"/>
+    <col min="12024" max="12024" width="17.57" customWidth="1"/>
+    <col min="12025" max="12025" width="8.29" customWidth="1"/>
+    <col min="12026" max="12026" width="10.14" customWidth="1"/>
     <col min="12027" max="12027" width="9" customWidth="1"/>
-    <col min="12028" max="12029" width="10.5740740740741" customWidth="1"/>
-    <col min="12030" max="12030" width="10.4259259259259" customWidth="1"/>
-    <col min="12031" max="12031" width="10.5740740740741" customWidth="1"/>
+    <col min="12028" max="12029" width="10.57" customWidth="1"/>
+    <col min="12030" max="12030" width="10.43" customWidth="1"/>
+    <col min="12031" max="12031" width="10.57" customWidth="1"/>
     <col min="12032" max="12032" width="12" customWidth="1"/>
-    <col min="12033" max="12034" width="10.5740740740741" customWidth="1"/>
-    <col min="12036" max="12036" width="10.287037037037" customWidth="1"/>
-    <col min="12037" max="12037" width="10.5740740740741" customWidth="1"/>
-    <col min="12272" max="12273" width="9.71296296296296" customWidth="1"/>
-    <col min="12274" max="12274" width="19.4259259259259" customWidth="1"/>
-    <col min="12275" max="12277" width="19.5740740740741" customWidth="1"/>
-    <col min="12278" max="12278" width="6.42592592592593" customWidth="1"/>
-    <col min="12279" max="12279" width="11.712962962963" customWidth="1"/>
-    <col min="12280" max="12280" width="17.5740740740741" customWidth="1"/>
-    <col min="12281" max="12281" width="8.28703703703704" customWidth="1"/>
-    <col min="12282" max="12282" width="10.1388888888889" customWidth="1"/>
+    <col min="12033" max="12034" width="10.57" customWidth="1"/>
+    <col min="12036" max="12036" width="10.29" customWidth="1"/>
+    <col min="12037" max="12037" width="10.57" customWidth="1"/>
+    <col min="12272" max="12273" width="9.71" customWidth="1"/>
+    <col min="12274" max="12274" width="19.43" customWidth="1"/>
+    <col min="12275" max="12277" width="19.57" customWidth="1"/>
+    <col min="12278" max="12278" width="6.43" customWidth="1"/>
+    <col min="12279" max="12279" width="11.71" customWidth="1"/>
+    <col min="12280" max="12280" width="17.57" customWidth="1"/>
+    <col min="12281" max="12281" width="8.29" customWidth="1"/>
+    <col min="12282" max="12282" width="10.14" customWidth="1"/>
     <col min="12283" max="12283" width="9" customWidth="1"/>
-    <col min="12284" max="12285" width="10.5740740740741" customWidth="1"/>
-    <col min="12286" max="12286" width="10.4259259259259" customWidth="1"/>
-    <col min="12287" max="12287" width="10.5740740740741" customWidth="1"/>
+    <col min="12284" max="12285" width="10.57" customWidth="1"/>
+    <col min="12286" max="12286" width="10.43" customWidth="1"/>
+    <col min="12287" max="12287" width="10.57" customWidth="1"/>
     <col min="12288" max="12288" width="12" customWidth="1"/>
-    <col min="12289" max="12290" width="10.5740740740741" customWidth="1"/>
-    <col min="12292" max="12292" width="10.287037037037" customWidth="1"/>
-    <col min="12293" max="12293" width="10.5740740740741" customWidth="1"/>
-    <col min="12528" max="12529" width="9.71296296296296" customWidth="1"/>
-    <col min="12530" max="12530" width="19.4259259259259" customWidth="1"/>
-    <col min="12531" max="12533" width="19.5740740740741" customWidth="1"/>
-    <col min="12534" max="12534" width="6.42592592592593" customWidth="1"/>
-    <col min="12535" max="12535" width="11.712962962963" customWidth="1"/>
-    <col min="12536" max="12536" width="17.5740740740741" customWidth="1"/>
-    <col min="12537" max="12537" width="8.28703703703704" customWidth="1"/>
-    <col min="12538" max="12538" width="10.1388888888889" customWidth="1"/>
+    <col min="12289" max="12290" width="10.57" customWidth="1"/>
+    <col min="12292" max="12292" width="10.29" customWidth="1"/>
+    <col min="12293" max="12293" width="10.57" customWidth="1"/>
+    <col min="12528" max="12529" width="9.71" customWidth="1"/>
+    <col min="12530" max="12530" width="19.43" customWidth="1"/>
+    <col min="12531" max="12533" width="19.57" customWidth="1"/>
+    <col min="12534" max="12534" width="6.43" customWidth="1"/>
+    <col min="12535" max="12535" width="11.71" customWidth="1"/>
+    <col min="12536" max="12536" width="17.57" customWidth="1"/>
+    <col min="12537" max="12537" width="8.29" customWidth="1"/>
+    <col min="12538" max="12538" width="10.14" customWidth="1"/>
     <col min="12539" max="12539" width="9" customWidth="1"/>
-    <col min="12540" max="12541" width="10.5740740740741" customWidth="1"/>
-    <col min="12542" max="12542" width="10.4259259259259" customWidth="1"/>
-    <col min="12543" max="12543" width="10.5740740740741" customWidth="1"/>
+    <col min="12540" max="12541" width="10.57" customWidth="1"/>
+    <col min="12542" max="12542" width="10.43" customWidth="1"/>
+    <col min="12543" max="12543" width="10.57" customWidth="1"/>
     <col min="12544" max="12544" width="12" customWidth="1"/>
-    <col min="12545" max="12546" width="10.5740740740741" customWidth="1"/>
-    <col min="12548" max="12548" width="10.287037037037" customWidth="1"/>
-    <col min="12549" max="12549" width="10.5740740740741" customWidth="1"/>
-    <col min="12784" max="12785" width="9.71296296296296" customWidth="1"/>
-    <col min="12786" max="12786" width="19.4259259259259" customWidth="1"/>
-    <col min="12787" max="12789" width="19.5740740740741" customWidth="1"/>
-    <col min="12790" max="12790" width="6.42592592592593" customWidth="1"/>
-    <col min="12791" max="12791" width="11.712962962963" customWidth="1"/>
-    <col min="12792" max="12792" width="17.5740740740741" customWidth="1"/>
-    <col min="12793" max="12793" width="8.28703703703704" customWidth="1"/>
-    <col min="12794" max="12794" width="10.1388888888889" customWidth="1"/>
+    <col min="12545" max="12546" width="10.57" customWidth="1"/>
+    <col min="12548" max="12548" width="10.29" customWidth="1"/>
+    <col min="12549" max="12549" width="10.57" customWidth="1"/>
+    <col min="12784" max="12785" width="9.71" customWidth="1"/>
+    <col min="12786" max="12786" width="19.43" customWidth="1"/>
+    <col min="12787" max="12789" width="19.57" customWidth="1"/>
+    <col min="12790" max="12790" width="6.43" customWidth="1"/>
+    <col min="12791" max="12791" width="11.71" customWidth="1"/>
+    <col min="12792" max="12792" width="17.57" customWidth="1"/>
+    <col min="12793" max="12793" width="8.29" customWidth="1"/>
+    <col min="12794" max="12794" width="10.14" customWidth="1"/>
     <col min="12795" max="12795" width="9" customWidth="1"/>
-    <col min="12796" max="12797" width="10.5740740740741" customWidth="1"/>
-    <col min="12798" max="12798" width="10.4259259259259" customWidth="1"/>
-    <col min="12799" max="12799" width="10.5740740740741" customWidth="1"/>
+    <col min="12796" max="12797" width="10.57" customWidth="1"/>
+    <col min="12798" max="12798" width="10.43" customWidth="1"/>
+    <col min="12799" max="12799" width="10.57" customWidth="1"/>
     <col min="12800" max="12800" width="12" customWidth="1"/>
-    <col min="12801" max="12802" width="10.5740740740741" customWidth="1"/>
-    <col min="12804" max="12804" width="10.287037037037" customWidth="1"/>
-    <col min="12805" max="12805" width="10.5740740740741" customWidth="1"/>
-    <col min="13040" max="13041" width="9.71296296296296" customWidth="1"/>
-    <col min="13042" max="13042" width="19.4259259259259" customWidth="1"/>
-    <col min="13043" max="13045" width="19.5740740740741" customWidth="1"/>
-    <col min="13046" max="13046" width="6.42592592592593" customWidth="1"/>
-    <col min="13047" max="13047" width="11.712962962963" customWidth="1"/>
-    <col min="13048" max="13048" width="17.5740740740741" customWidth="1"/>
-    <col min="13049" max="13049" width="8.28703703703704" customWidth="1"/>
-    <col min="13050" max="13050" width="10.1388888888889" customWidth="1"/>
+    <col min="12801" max="12802" width="10.57" customWidth="1"/>
+    <col min="12804" max="12804" width="10.29" customWidth="1"/>
+    <col min="12805" max="12805" width="10.57" customWidth="1"/>
+    <col min="13040" max="13041" width="9.71" customWidth="1"/>
+    <col min="13042" max="13042" width="19.43" customWidth="1"/>
+    <col min="13043" max="13045" width="19.57" customWidth="1"/>
+    <col min="13046" max="13046" width="6.43" customWidth="1"/>
+    <col min="13047" max="13047" width="11.71" customWidth="1"/>
+    <col min="13048" max="13048" width="17.57" customWidth="1"/>
+    <col min="13049" max="13049" width="8.29" customWidth="1"/>
+    <col min="13050" max="13050" width="10.14" customWidth="1"/>
     <col min="13051" max="13051" width="9" customWidth="1"/>
-    <col min="13052" max="13053" width="10.5740740740741" customWidth="1"/>
-    <col min="13054" max="13054" width="10.4259259259259" customWidth="1"/>
-    <col min="13055" max="13055" width="10.5740740740741" customWidth="1"/>
+    <col min="13052" max="13053" width="10.57" customWidth="1"/>
+    <col min="13054" max="13054" width="10.43" customWidth="1"/>
+    <col min="13055" max="13055" width="10.57" customWidth="1"/>
     <col min="13056" max="13056" width="12" customWidth="1"/>
-    <col min="13057" max="13058" width="10.5740740740741" customWidth="1"/>
-    <col min="13060" max="13060" width="10.287037037037" customWidth="1"/>
-    <col min="13061" max="13061" width="10.5740740740741" customWidth="1"/>
-    <col min="13296" max="13297" width="9.71296296296296" customWidth="1"/>
-    <col min="13298" max="13298" width="19.4259259259259" customWidth="1"/>
-    <col min="13299" max="13301" width="19.5740740740741" customWidth="1"/>
-    <col min="13302" max="13302" width="6.42592592592593" customWidth="1"/>
-    <col min="13303" max="13303" width="11.712962962963" customWidth="1"/>
-    <col min="13304" max="13304" width="17.5740740740741" customWidth="1"/>
-    <col min="13305" max="13305" width="8.28703703703704" customWidth="1"/>
-    <col min="13306" max="13306" width="10.1388888888889" customWidth="1"/>
+    <col min="13057" max="13058" width="10.57" customWidth="1"/>
+    <col min="13060" max="13060" width="10.29" customWidth="1"/>
+    <col min="13061" max="13061" width="10.57" customWidth="1"/>
+    <col min="13296" max="13297" width="9.71" customWidth="1"/>
+    <col min="13298" max="13298" width="19.43" customWidth="1"/>
+    <col min="13299" max="13301" width="19.57" customWidth="1"/>
+    <col min="13302" max="13302" width="6.43" customWidth="1"/>
+    <col min="13303" max="13303" width="11.71" customWidth="1"/>
+    <col min="13304" max="13304" width="17.57" customWidth="1"/>
+    <col min="13305" max="13305" width="8.29" customWidth="1"/>
+    <col min="13306" max="13306" width="10.14" customWidth="1"/>
     <col min="13307" max="13307" width="9" customWidth="1"/>
-    <col min="13308" max="13309" width="10.5740740740741" customWidth="1"/>
-    <col min="13310" max="13310" width="10.4259259259259" customWidth="1"/>
-    <col min="13311" max="13311" width="10.5740740740741" customWidth="1"/>
+    <col min="13308" max="13309" width="10.57" customWidth="1"/>
+    <col min="13310" max="13310" width="10.43" customWidth="1"/>
+    <col min="13311" max="13311" width="10.57" customWidth="1"/>
     <col min="13312" max="13312" width="12" customWidth="1"/>
-    <col min="13313" max="13314" width="10.5740740740741" customWidth="1"/>
-    <col min="13316" max="13316" width="10.287037037037" customWidth="1"/>
-    <col min="13317" max="13317" width="10.5740740740741" customWidth="1"/>
-    <col min="13552" max="13553" width="9.71296296296296" customWidth="1"/>
-    <col min="13554" max="13554" width="19.4259259259259" customWidth="1"/>
-    <col min="13555" max="13557" width="19.5740740740741" customWidth="1"/>
-    <col min="13558" max="13558" width="6.42592592592593" customWidth="1"/>
-    <col min="13559" max="13559" width="11.712962962963" customWidth="1"/>
-    <col min="13560" max="13560" width="17.5740740740741" customWidth="1"/>
-    <col min="13561" max="13561" width="8.28703703703704" customWidth="1"/>
-    <col min="13562" max="13562" width="10.1388888888889" customWidth="1"/>
+    <col min="13313" max="13314" width="10.57" customWidth="1"/>
+    <col min="13316" max="13316" width="10.29" customWidth="1"/>
+    <col min="13317" max="13317" width="10.57" customWidth="1"/>
+    <col min="13552" max="13553" width="9.71" customWidth="1"/>
+    <col min="13554" max="13554" width="19.43" customWidth="1"/>
+    <col min="13555" max="13557" width="19.57" customWidth="1"/>
+    <col min="13558" max="13558" width="6.43" customWidth="1"/>
+    <col min="13559" max="13559" width="11.71" customWidth="1"/>
+    <col min="13560" max="13560" width="17.57" customWidth="1"/>
+    <col min="13561" max="13561" width="8.29" customWidth="1"/>
+    <col min="13562" max="13562" width="10.14" customWidth="1"/>
     <col min="13563" max="13563" width="9" customWidth="1"/>
-    <col min="13564" max="13565" width="10.5740740740741" customWidth="1"/>
-    <col min="13566" max="13566" width="10.4259259259259" customWidth="1"/>
-    <col min="13567" max="13567" width="10.5740740740741" customWidth="1"/>
+    <col min="13564" max="13565" width="10.57" customWidth="1"/>
+    <col min="13566" max="13566" width="10.43" customWidth="1"/>
+    <col min="13567" max="13567" width="10.57" customWidth="1"/>
     <col min="13568" max="13568" width="12" customWidth="1"/>
-    <col min="13569" max="13570" width="10.5740740740741" customWidth="1"/>
-    <col min="13572" max="13572" width="10.287037037037" customWidth="1"/>
-    <col min="13573" max="13573" width="10.5740740740741" customWidth="1"/>
-    <col min="13808" max="13809" width="9.71296296296296" customWidth="1"/>
-    <col min="13810" max="13810" width="19.4259259259259" customWidth="1"/>
-    <col min="13811" max="13813" width="19.5740740740741" customWidth="1"/>
-    <col min="13814" max="13814" width="6.42592592592593" customWidth="1"/>
-    <col min="13815" max="13815" width="11.712962962963" customWidth="1"/>
-    <col min="13816" max="13816" width="17.5740740740741" customWidth="1"/>
-    <col min="13817" max="13817" width="8.28703703703704" customWidth="1"/>
-    <col min="13818" max="13818" width="10.1388888888889" customWidth="1"/>
+    <col min="13569" max="13570" width="10.57" customWidth="1"/>
+    <col min="13572" max="13572" width="10.29" customWidth="1"/>
+    <col min="13573" max="13573" width="10.57" customWidth="1"/>
+    <col min="13808" max="13809" width="9.71" customWidth="1"/>
+    <col min="13810" max="13810" width="19.43" customWidth="1"/>
+    <col min="13811" max="13813" width="19.57" customWidth="1"/>
+    <col min="13814" max="13814" width="6.43" customWidth="1"/>
+    <col min="13815" max="13815" width="11.71" customWidth="1"/>
+    <col min="13816" max="13816" width="17.57" customWidth="1"/>
+    <col min="13817" max="13817" width="8.29" customWidth="1"/>
+    <col min="13818" max="13818" width="10.14" customWidth="1"/>
     <col min="13819" max="13819" width="9" customWidth="1"/>
-    <col min="13820" max="13821" width="10.5740740740741" customWidth="1"/>
-    <col min="13822" max="13822" width="10.4259259259259" customWidth="1"/>
-    <col min="13823" max="13823" width="10.5740740740741" customWidth="1"/>
+    <col min="13820" max="13821" width="10.57" customWidth="1"/>
+    <col min="13822" max="13822" width="10.43" customWidth="1"/>
+    <col min="13823" max="13823" width="10.57" customWidth="1"/>
     <col min="13824" max="13824" width="12" customWidth="1"/>
-    <col min="13825" max="13826" width="10.5740740740741" customWidth="1"/>
-    <col min="13828" max="13828" width="10.287037037037" customWidth="1"/>
-    <col min="13829" max="13829" width="10.5740740740741" customWidth="1"/>
-    <col min="14064" max="14065" width="9.71296296296296" customWidth="1"/>
-    <col min="14066" max="14066" width="19.4259259259259" customWidth="1"/>
-    <col min="14067" max="14069" width="19.5740740740741" customWidth="1"/>
-    <col min="14070" max="14070" width="6.42592592592593" customWidth="1"/>
-    <col min="14071" max="14071" width="11.712962962963" customWidth="1"/>
-    <col min="14072" max="14072" width="17.5740740740741" customWidth="1"/>
-    <col min="14073" max="14073" width="8.28703703703704" customWidth="1"/>
-    <col min="14074" max="14074" width="10.1388888888889" customWidth="1"/>
+    <col min="13825" max="13826" width="10.57" customWidth="1"/>
+    <col min="13828" max="13828" width="10.29" customWidth="1"/>
+    <col min="13829" max="13829" width="10.57" customWidth="1"/>
+    <col min="14064" max="14065" width="9.71" customWidth="1"/>
+    <col min="14066" max="14066" width="19.43" customWidth="1"/>
+    <col min="14067" max="14069" width="19.57" customWidth="1"/>
+    <col min="14070" max="14070" width="6.43" customWidth="1"/>
+    <col min="14071" max="14071" width="11.71" customWidth="1"/>
+    <col min="14072" max="14072" width="17.57" customWidth="1"/>
+    <col min="14073" max="14073" width="8.29" customWidth="1"/>
+    <col min="14074" max="14074" width="10.14" customWidth="1"/>
     <col min="14075" max="14075" width="9" customWidth="1"/>
-    <col min="14076" max="14077" width="10.5740740740741" customWidth="1"/>
-    <col min="14078" max="14078" width="10.4259259259259" customWidth="1"/>
-    <col min="14079" max="14079" width="10.5740740740741" customWidth="1"/>
+    <col min="14076" max="14077" width="10.57" customWidth="1"/>
+    <col min="14078" max="14078" width="10.43" customWidth="1"/>
+    <col min="14079" max="14079" width="10.57" customWidth="1"/>
     <col min="14080" max="14080" width="12" customWidth="1"/>
-    <col min="14081" max="14082" width="10.5740740740741" customWidth="1"/>
-    <col min="14084" max="14084" width="10.287037037037" customWidth="1"/>
-    <col min="14085" max="14085" width="10.5740740740741" customWidth="1"/>
-    <col min="14320" max="14321" width="9.71296296296296" customWidth="1"/>
-    <col min="14322" max="14322" width="19.4259259259259" customWidth="1"/>
-    <col min="14323" max="14325" width="19.5740740740741" customWidth="1"/>
-    <col min="14326" max="14326" width="6.42592592592593" customWidth="1"/>
-    <col min="14327" max="14327" width="11.712962962963" customWidth="1"/>
-    <col min="14328" max="14328" width="17.5740740740741" customWidth="1"/>
-    <col min="14329" max="14329" width="8.28703703703704" customWidth="1"/>
-    <col min="14330" max="14330" width="10.1388888888889" customWidth="1"/>
+    <col min="14081" max="14082" width="10.57" customWidth="1"/>
+    <col min="14084" max="14084" width="10.29" customWidth="1"/>
+    <col min="14085" max="14085" width="10.57" customWidth="1"/>
+    <col min="14320" max="14321" width="9.71" customWidth="1"/>
+    <col min="14322" max="14322" width="19.43" customWidth="1"/>
+    <col min="14323" max="14325" width="19.57" customWidth="1"/>
+    <col min="14326" max="14326" width="6.43" customWidth="1"/>
+    <col min="14327" max="14327" width="11.71" customWidth="1"/>
+    <col min="14328" max="14328" width="17.57" customWidth="1"/>
+    <col min="14329" max="14329" width="8.29" customWidth="1"/>
+    <col min="14330" max="14330" width="10.14" customWidth="1"/>
     <col min="14331" max="14331" width="9" customWidth="1"/>
-    <col min="14332" max="14333" width="10.5740740740741" customWidth="1"/>
-    <col min="14334" max="14334" width="10.4259259259259" customWidth="1"/>
-    <col min="14335" max="14335" width="10.5740740740741" customWidth="1"/>
+    <col min="14332" max="14333" width="10.57" customWidth="1"/>
+    <col min="14334" max="14334" width="10.43" customWidth="1"/>
+    <col min="14335" max="14335" width="10.57" customWidth="1"/>
     <col min="14336" max="14336" width="12" customWidth="1"/>
-    <col min="14337" max="14338" width="10.5740740740741" customWidth="1"/>
-    <col min="14340" max="14340" width="10.287037037037" customWidth="1"/>
-    <col min="14341" max="14341" width="10.5740740740741" customWidth="1"/>
-    <col min="14576" max="14577" width="9.71296296296296" customWidth="1"/>
-    <col min="14578" max="14578" width="19.4259259259259" customWidth="1"/>
-    <col min="14579" max="14581" width="19.5740740740741" customWidth="1"/>
-    <col min="14582" max="14582" width="6.42592592592593" customWidth="1"/>
-    <col min="14583" max="14583" width="11.712962962963" customWidth="1"/>
-    <col min="14584" max="14584" width="17.5740740740741" customWidth="1"/>
-    <col min="14585" max="14585" width="8.28703703703704" customWidth="1"/>
-    <col min="14586" max="14586" width="10.1388888888889" customWidth="1"/>
+    <col min="14337" max="14338" width="10.57" customWidth="1"/>
+    <col min="14340" max="14340" width="10.29" customWidth="1"/>
+    <col min="14341" max="14341" width="10.57" customWidth="1"/>
+    <col min="14576" max="14577" width="9.71" customWidth="1"/>
+    <col min="14578" max="14578" width="19.43" customWidth="1"/>
+    <col min="14579" max="14581" width="19.57" customWidth="1"/>
+    <col min="14582" max="14582" width="6.43" customWidth="1"/>
+    <col min="14583" max="14583" width="11.71" customWidth="1"/>
+    <col min="14584" max="14584" width="17.57" customWidth="1"/>
+    <col min="14585" max="14585" width="8.29" customWidth="1"/>
+    <col min="14586" max="14586" width="10.14" customWidth="1"/>
     <col min="14587" max="14587" width="9" customWidth="1"/>
-    <col min="14588" max="14589" width="10.5740740740741" customWidth="1"/>
-    <col min="14590" max="14590" width="10.4259259259259" customWidth="1"/>
-    <col min="14591" max="14591" width="10.5740740740741" customWidth="1"/>
+    <col min="14588" max="14589" width="10.57" customWidth="1"/>
+    <col min="14590" max="14590" width="10.43" customWidth="1"/>
+    <col min="14591" max="14591" width="10.57" customWidth="1"/>
     <col min="14592" max="14592" width="12" customWidth="1"/>
-    <col min="14593" max="14594" width="10.5740740740741" customWidth="1"/>
-    <col min="14596" max="14596" width="10.287037037037" customWidth="1"/>
-    <col min="14597" max="14597" width="10.5740740740741" customWidth="1"/>
-    <col min="14832" max="14833" width="9.71296296296296" customWidth="1"/>
-    <col min="14834" max="14834" width="19.4259259259259" customWidth="1"/>
-    <col min="14835" max="14837" width="19.5740740740741" customWidth="1"/>
-    <col min="14838" max="14838" width="6.42592592592593" customWidth="1"/>
-    <col min="14839" max="14839" width="11.712962962963" customWidth="1"/>
-    <col min="14840" max="14840" width="17.5740740740741" customWidth="1"/>
-    <col min="14841" max="14841" width="8.28703703703704" customWidth="1"/>
-    <col min="14842" max="14842" width="10.1388888888889" customWidth="1"/>
+    <col min="14593" max="14594" width="10.57" customWidth="1"/>
+    <col min="14596" max="14596" width="10.29" customWidth="1"/>
+    <col min="14597" max="14597" width="10.57" customWidth="1"/>
+    <col min="14832" max="14833" width="9.71" customWidth="1"/>
+    <col min="14834" max="14834" width="19.43" customWidth="1"/>
+    <col min="14835" max="14837" width="19.57" customWidth="1"/>
+    <col min="14838" max="14838" width="6.43" customWidth="1"/>
+    <col min="14839" max="14839" width="11.71" customWidth="1"/>
+    <col min="14840" max="14840" width="17.57" customWidth="1"/>
+    <col min="14841" max="14841" width="8.29" customWidth="1"/>
+    <col min="14842" max="14842" width="10.14" customWidth="1"/>
     <col min="14843" max="14843" width="9" customWidth="1"/>
-    <col min="14844" max="14845" width="10.5740740740741" customWidth="1"/>
-    <col min="14846" max="14846" width="10.4259259259259" customWidth="1"/>
-    <col min="14847" max="14847" width="10.5740740740741" customWidth="1"/>
+    <col min="14844" max="14845" width="10.57" customWidth="1"/>
+    <col min="14846" max="14846" width="10.43" customWidth="1"/>
+    <col min="14847" max="14847" width="10.57" customWidth="1"/>
     <col min="14848" max="14848" width="12" customWidth="1"/>
-    <col min="14849" max="14850" width="10.5740740740741" customWidth="1"/>
-    <col min="14852" max="14852" width="10.287037037037" customWidth="1"/>
-    <col min="14853" max="14853" width="10.5740740740741" customWidth="1"/>
-    <col min="15088" max="15089" width="9.71296296296296" customWidth="1"/>
-    <col min="15090" max="15090" width="19.4259259259259" customWidth="1"/>
-    <col min="15091" max="15093" width="19.5740740740741" customWidth="1"/>
-    <col min="15094" max="15094" width="6.42592592592593" customWidth="1"/>
-    <col min="15095" max="15095" width="11.712962962963" customWidth="1"/>
-    <col min="15096" max="15096" width="17.5740740740741" customWidth="1"/>
-    <col min="15097" max="15097" width="8.28703703703704" customWidth="1"/>
-    <col min="15098" max="15098" width="10.1388888888889" customWidth="1"/>
+    <col min="14849" max="14850" width="10.57" customWidth="1"/>
+    <col min="14852" max="14852" width="10.29" customWidth="1"/>
+    <col min="14853" max="14853" width="10.57" customWidth="1"/>
+    <col min="15088" max="15089" width="9.71" customWidth="1"/>
+    <col min="15090" max="15090" width="19.43" customWidth="1"/>
+    <col min="15091" max="15093" width="19.57" customWidth="1"/>
+    <col min="15094" max="15094" width="6.43" customWidth="1"/>
+    <col min="15095" max="15095" width="11.71" customWidth="1"/>
+    <col min="15096" max="15096" width="17.57" customWidth="1"/>
+    <col min="15097" max="15097" width="8.29" customWidth="1"/>
+    <col min="15098" max="15098" width="10.14" customWidth="1"/>
     <col min="15099" max="15099" width="9" customWidth="1"/>
-    <col min="15100" max="15101" width="10.5740740740741" customWidth="1"/>
-    <col min="15102" max="15102" width="10.4259259259259" customWidth="1"/>
-    <col min="15103" max="15103" width="10.5740740740741" customWidth="1"/>
+    <col min="15100" max="15101" width="10.57" customWidth="1"/>
+    <col min="15102" max="15102" width="10.43" customWidth="1"/>
+    <col min="15103" max="15103" width="10.57" customWidth="1"/>
     <col min="15104" max="15104" width="12" customWidth="1"/>
-    <col min="15105" max="15106" width="10.5740740740741" customWidth="1"/>
-    <col min="15108" max="15108" width="10.287037037037" customWidth="1"/>
-    <col min="15109" max="15109" width="10.5740740740741" customWidth="1"/>
-    <col min="15344" max="15345" width="9.71296296296296" customWidth="1"/>
-    <col min="15346" max="15346" width="19.4259259259259" customWidth="1"/>
-    <col min="15347" max="15349" width="19.5740740740741" customWidth="1"/>
-    <col min="15350" max="15350" width="6.42592592592593" customWidth="1"/>
-    <col min="15351" max="15351" width="11.712962962963" customWidth="1"/>
-    <col min="15352" max="15352" width="17.5740740740741" customWidth="1"/>
-    <col min="15353" max="15353" width="8.28703703703704" customWidth="1"/>
-    <col min="15354" max="15354" width="10.1388888888889" customWidth="1"/>
+    <col min="15105" max="15106" width="10.57" customWidth="1"/>
+    <col min="15108" max="15108" width="10.29" customWidth="1"/>
+    <col min="15109" max="15109" width="10.57" customWidth="1"/>
+    <col min="15344" max="15345" width="9.71" customWidth="1"/>
+    <col min="15346" max="15346" width="19.43" customWidth="1"/>
+    <col min="15347" max="15349" width="19.57" customWidth="1"/>
+    <col min="15350" max="15350" width="6.43" customWidth="1"/>
+    <col min="15351" max="15351" width="11.71" customWidth="1"/>
+    <col min="15352" max="15352" width="17.57" customWidth="1"/>
+    <col min="15353" max="15353" width="8.29" customWidth="1"/>
+    <col min="15354" max="15354" width="10.14" customWidth="1"/>
     <col min="15355" max="15355" width="9" customWidth="1"/>
-    <col min="15356" max="15357" width="10.5740740740741" customWidth="1"/>
-    <col min="15358" max="15358" width="10.4259259259259" customWidth="1"/>
-    <col min="15359" max="15359" width="10.5740740740741" customWidth="1"/>
+    <col min="15356" max="15357" width="10.57" customWidth="1"/>
+    <col min="15358" max="15358" width="10.43" customWidth="1"/>
+    <col min="15359" max="15359" width="10.57" customWidth="1"/>
     <col min="15360" max="15360" width="12" customWidth="1"/>
-    <col min="15361" max="15362" width="10.5740740740741" customWidth="1"/>
-    <col min="15364" max="15364" width="10.287037037037" customWidth="1"/>
-    <col min="15365" max="15365" width="10.5740740740741" customWidth="1"/>
-    <col min="15600" max="15601" width="9.71296296296296" customWidth="1"/>
-    <col min="15602" max="15602" width="19.4259259259259" customWidth="1"/>
-    <col min="15603" max="15605" width="19.5740740740741" customWidth="1"/>
-    <col min="15606" max="15606" width="6.42592592592593" customWidth="1"/>
-    <col min="15607" max="15607" width="11.712962962963" customWidth="1"/>
-    <col min="15608" max="15608" width="17.5740740740741" customWidth="1"/>
-    <col min="15609" max="15609" width="8.28703703703704" customWidth="1"/>
-    <col min="15610" max="15610" width="10.1388888888889" customWidth="1"/>
+    <col min="15361" max="15362" width="10.57" customWidth="1"/>
+    <col min="15364" max="15364" width="10.29" customWidth="1"/>
+    <col min="15365" max="15365" width="10.57" customWidth="1"/>
+    <col min="15600" max="15601" width="9.71" customWidth="1"/>
+    <col min="15602" max="15602" width="19.43" customWidth="1"/>
+    <col min="15603" max="15605" width="19.57" customWidth="1"/>
+    <col min="15606" max="15606" width="6.43" customWidth="1"/>
+    <col min="15607" max="15607" width="11.71" customWidth="1"/>
+    <col min="15608" max="15608" width="17.57" customWidth="1"/>
+    <col min="15609" max="15609" width="8.29" customWidth="1"/>
+    <col min="15610" max="15610" width="10.14" customWidth="1"/>
     <col min="15611" max="15611" width="9" customWidth="1"/>
-    <col min="15612" max="15613" width="10.5740740740741" customWidth="1"/>
-    <col min="15614" max="15614" width="10.4259259259259" customWidth="1"/>
-    <col min="15615" max="15615" width="10.5740740740741" customWidth="1"/>
+    <col min="15612" max="15613" width="10.57" customWidth="1"/>
+    <col min="15614" max="15614" width="10.43" customWidth="1"/>
+    <col min="15615" max="15615" width="10.57" customWidth="1"/>
     <col min="15616" max="15616" width="12" customWidth="1"/>
-    <col min="15617" max="15618" width="10.5740740740741" customWidth="1"/>
-    <col min="15620" max="15620" width="10.287037037037" customWidth="1"/>
-    <col min="15621" max="15621" width="10.5740740740741" customWidth="1"/>
-    <col min="15856" max="15857" width="9.71296296296296" customWidth="1"/>
-    <col min="15858" max="15858" width="19.4259259259259" customWidth="1"/>
-    <col min="15859" max="15861" width="19.5740740740741" customWidth="1"/>
-    <col min="15862" max="15862" width="6.42592592592593" customWidth="1"/>
-    <col min="15863" max="15863" width="11.712962962963" customWidth="1"/>
-    <col min="15864" max="15864" width="17.5740740740741" customWidth="1"/>
-    <col min="15865" max="15865" width="8.28703703703704" customWidth="1"/>
-    <col min="15866" max="15866" width="10.1388888888889" customWidth="1"/>
+    <col min="15617" max="15618" width="10.57" customWidth="1"/>
+    <col min="15620" max="15620" width="10.29" customWidth="1"/>
+    <col min="15621" max="15621" width="10.57" customWidth="1"/>
+    <col min="15856" max="15857" width="9.71" customWidth="1"/>
+    <col min="15858" max="15858" width="19.43" customWidth="1"/>
+    <col min="15859" max="15861" width="19.57" customWidth="1"/>
+    <col min="15862" max="15862" width="6.43" customWidth="1"/>
+    <col min="15863" max="15863" width="11.71" customWidth="1"/>
+    <col min="15864" max="15864" width="17.57" customWidth="1"/>
+    <col min="15865" max="15865" width="8.29" customWidth="1"/>
+    <col min="15866" max="15866" width="10.14" customWidth="1"/>
     <col min="15867" max="15867" width="9" customWidth="1"/>
-    <col min="15868" max="15869" width="10.5740740740741" customWidth="1"/>
-    <col min="15870" max="15870" width="10.4259259259259" customWidth="1"/>
-    <col min="15871" max="15871" width="10.5740740740741" customWidth="1"/>
+    <col min="15868" max="15869" width="10.57" customWidth="1"/>
+    <col min="15870" max="15870" width="10.43" customWidth="1"/>
+    <col min="15871" max="15871" width="10.57" customWidth="1"/>
     <col min="15872" max="15872" width="12" customWidth="1"/>
-    <col min="15873" max="15874" width="10.5740740740741" customWidth="1"/>
-    <col min="15876" max="15876" width="10.287037037037" customWidth="1"/>
-    <col min="15877" max="15877" width="10.5740740740741" customWidth="1"/>
-    <col min="16112" max="16113" width="9.71296296296296" customWidth="1"/>
-    <col min="16114" max="16114" width="19.4259259259259" customWidth="1"/>
-    <col min="16115" max="16117" width="19.5740740740741" customWidth="1"/>
-    <col min="16118" max="16118" width="6.42592592592593" customWidth="1"/>
-    <col min="16119" max="16119" width="11.712962962963" customWidth="1"/>
-    <col min="16120" max="16120" width="17.5740740740741" customWidth="1"/>
-    <col min="16121" max="16121" width="8.28703703703704" customWidth="1"/>
-    <col min="16122" max="16122" width="10.1388888888889" customWidth="1"/>
+    <col min="15873" max="15874" width="10.57" customWidth="1"/>
+    <col min="15876" max="15876" width="10.29" customWidth="1"/>
+    <col min="15877" max="15877" width="10.57" customWidth="1"/>
+    <col min="16112" max="16113" width="9.71" customWidth="1"/>
+    <col min="16114" max="16114" width="19.43" customWidth="1"/>
+    <col min="16115" max="16117" width="19.57" customWidth="1"/>
+    <col min="16118" max="16118" width="6.43" customWidth="1"/>
+    <col min="16119" max="16119" width="11.71" customWidth="1"/>
+    <col min="16120" max="16120" width="17.57" customWidth="1"/>
+    <col min="16121" max="16121" width="8.29" customWidth="1"/>
+    <col min="16122" max="16122" width="10.14" customWidth="1"/>
     <col min="16123" max="16123" width="9" customWidth="1"/>
-    <col min="16124" max="16125" width="10.5740740740741" customWidth="1"/>
-    <col min="16126" max="16126" width="10.4259259259259" customWidth="1"/>
-    <col min="16127" max="16127" width="10.5740740740741" customWidth="1"/>
+    <col min="16124" max="16125" width="10.57" customWidth="1"/>
+    <col min="16126" max="16126" width="10.43" customWidth="1"/>
+    <col min="16127" max="16127" width="10.57" customWidth="1"/>
     <col min="16128" max="16128" width="12" customWidth="1"/>
-    <col min="16129" max="16130" width="10.5740740740741" customWidth="1"/>
-    <col min="16132" max="16132" width="10.287037037037" customWidth="1"/>
-    <col min="16133" max="16133" width="10.5740740740741" customWidth="1"/>
+    <col min="16129" max="16130" width="10.57" customWidth="1"/>
+    <col min="16132" max="16132" width="10.29" customWidth="1"/>
+    <col min="16133" max="16133" width="10.57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.15" customHeight="1" spans="1:36">
@@ -2480,10 +2393,10 @@
         <v>3</v>
       </c>
       <c r="AH1" s="9"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="15"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="14"/>
     </row>
-    <row r="2" ht="26.4" spans="1:36">
+    <row r="2" ht="12.5" spans="1:36">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2586,234 +2499,90 @@
       <c r="AH2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AI2" s="14" t="s">
+      <c r="AI2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AJ2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:36">
-      <c r="A3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" s="4">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>45</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V3" s="4">
-        <v>34</v>
-      </c>
-      <c r="W3" s="4">
-        <v>56</v>
-      </c>
-      <c r="X3" s="4">
-        <v>68</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>100.93</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>67.8</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>4</v>
-      </c>
-      <c r="AB3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>54</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>54</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>78</v>
-      </c>
-      <c r="AF3" s="4">
-        <v>90</v>
-      </c>
-      <c r="AG3" s="4">
-        <v>5</v>
-      </c>
-      <c r="AH3" s="16">
-        <v>6</v>
-      </c>
-      <c r="AI3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ3" s="17" t="s">
-        <v>60</v>
-      </c>
+    <row r="3" ht="12.5" spans="1:36">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
     </row>
     <row r="4" spans="1:36">
-      <c r="A4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" s="4">
-        <v>54</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>45</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V4" s="4">
-        <v>56</v>
-      </c>
-      <c r="W4" s="4">
-        <v>89</v>
-      </c>
-      <c r="X4" s="4">
-        <v>70</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>340.9</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>78.7</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>88</v>
-      </c>
-      <c r="AB4" s="4">
-        <v>6</v>
-      </c>
-      <c r="AC4" s="4">
-        <v>67</v>
-      </c>
-      <c r="AD4" s="4">
-        <v>65</v>
-      </c>
-      <c r="AE4" s="4">
-        <v>56</v>
-      </c>
-      <c r="AF4" s="4">
-        <v>78</v>
-      </c>
-      <c r="AG4" s="4">
-        <v>8</v>
-      </c>
-      <c r="AH4" s="16">
-        <v>9</v>
-      </c>
-      <c r="AI4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ4" s="17" t="s">
-        <v>72</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" ht="11.5" spans="1:36">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2847,11 +2616,11 @@
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" ht="11.5" spans="1:36">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2885,11 +2654,11 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" ht="11.5" spans="1:36">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2923,11 +2692,11 @@
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" ht="11.5" spans="1:36">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -2961,11 +2730,11 @@
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="17"/>
-      <c r="AJ8" s="17"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" ht="11.5" spans="1:36">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2999,11 +2768,11 @@
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" ht="11.5" spans="1:36">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3037,11 +2806,11 @@
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" ht="11.5" spans="1:36">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -3075,11 +2844,11 @@
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" ht="11.5" spans="1:36">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -3113,11 +2882,11 @@
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" ht="11.5" spans="1:36">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3151,11 +2920,11 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" ht="11.5" spans="1:36">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -3189,11 +2958,11 @@
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" ht="11.5" spans="1:36">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -3227,11 +2996,11 @@
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16"/>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" ht="11.5" spans="1:36">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -3265,11 +3034,11 @@
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="16"/>
+      <c r="AJ16" s="16"/>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" ht="11.5" spans="1:36">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3303,11 +3072,11 @@
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" ht="11.5" spans="1:36">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3341,11 +3110,11 @@
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" ht="11.5" spans="1:36">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -3379,11 +3148,11 @@
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="16"/>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" ht="11.5" spans="1:36">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3411,18 +3180,18 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
-      <c r="AB20" s="13"/>
+      <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
     </row>
-    <row r="22" spans="35:35">
-      <c r="AI22" s="18"/>
+    <row r="22" ht="11.5" spans="35:35">
+      <c r="AI22" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
